--- a/Exam Attempt4.xlsx
+++ b/Exam Attempt4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F012A62-FE1D-49EC-8370-DE410B58BDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA693395-5021-4BA9-BD49-2ADFA70D54D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="140">
   <si>
     <t>Slno</t>
   </si>
@@ -5968,7 +5968,7 @@
         <v>138</v>
       </c>
       <c r="D28" t="b">
-        <f t="shared" ref="D19:D82" si="1">IF(B28=C28,TRUE,FALSE)</f>
+        <f t="shared" ref="D28:D82" si="1">IF(B28=C28,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -9243,7 +9243,1570 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C126"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="b">
+        <f>IF(B2=C2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="b">
+        <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" t="b">
+        <f t="shared" ref="D67:D126" si="1">IF(B67=C67,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>138</v>
+      </c>
+      <c r="D78" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>137</v>
+      </c>
+      <c r="D80" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>80</v>
+      </c>
+      <c r="D83" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>138</v>
+      </c>
+      <c r="D87" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>137</v>
+      </c>
+      <c r="D89" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>88</v>
+      </c>
+      <c r="D92" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>137</v>
+      </c>
+      <c r="D94" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>80</v>
+      </c>
+      <c r="D96" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>137</v>
+      </c>
+      <c r="D97" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>137</v>
+      </c>
+      <c r="D100" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>138</v>
+      </c>
+      <c r="D102" t="b">
+        <f>IF(B102=C102,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>137</v>
+      </c>
+      <c r="D103" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>138</v>
+      </c>
+      <c r="D104" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>80</v>
+      </c>
+      <c r="D105" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>137</v>
+      </c>
+      <c r="D106" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>138</v>
+      </c>
+      <c r="D107" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>80</v>
+      </c>
+      <c r="D108" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>137</v>
+      </c>
+      <c r="D109" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>138</v>
+      </c>
+      <c r="D110" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>80</v>
+      </c>
+      <c r="D111" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>138</v>
+      </c>
+      <c r="D112" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>137</v>
+      </c>
+      <c r="D113" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>138</v>
+      </c>
+      <c r="D114" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>88</v>
+      </c>
+      <c r="D115" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>88</v>
+      </c>
+      <c r="D116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>80</v>
+      </c>
+      <c r="D117" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>88</v>
+      </c>
+      <c r="D118" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>88</v>
+      </c>
+      <c r="D119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>88</v>
+      </c>
+      <c r="D120" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>138</v>
+      </c>
+      <c r="D121" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>138</v>
+      </c>
+      <c r="D122" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>138</v>
+      </c>
+      <c r="D123" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>80</v>
+      </c>
+      <c r="D124" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>138</v>
+      </c>
+      <c r="D125" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>88</v>
+      </c>
+      <c r="D126" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <f>COUNTIF(D2:D126,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="F128" t="s">
+        <v>90</v>
+      </c>
+      <c r="G128">
+        <f>SUM(D128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>91</v>
+      </c>
+      <c r="G129">
+        <f>SUM(G128/125*100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>92</v>
+      </c>
+      <c r="G131" t="str">
+        <f>IF(G128&gt;=92,"PASS","FAIL")</f>
+        <v>FAIL</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -9273,1581 +10836,6 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" t="b">
-        <f>IF(B2=C2,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" t="b">
-        <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D49" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>137</v>
-      </c>
-      <c r="D53" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>138</v>
-      </c>
-      <c r="D57" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>88</v>
-      </c>
-      <c r="D60" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>88</v>
-      </c>
-      <c r="D62" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>138</v>
-      </c>
-      <c r="D64" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>88</v>
-      </c>
-      <c r="D65" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67" t="b">
-        <f t="shared" ref="D67:D127" si="1">IF(B67=C67,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>137</v>
-      </c>
-      <c r="D68" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>138</v>
-      </c>
-      <c r="D70" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>137</v>
-      </c>
-      <c r="D71" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>88</v>
-      </c>
-      <c r="D72" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>80</v>
-      </c>
-      <c r="D73" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>138</v>
-      </c>
-      <c r="D75" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>138</v>
-      </c>
-      <c r="D76" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>88</v>
-      </c>
-      <c r="D77" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>88</v>
-      </c>
-      <c r="D78" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>138</v>
-      </c>
-      <c r="D79" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>138</v>
-      </c>
-      <c r="D80" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>137</v>
-      </c>
-      <c r="D81" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>80</v>
-      </c>
-      <c r="D82" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>80</v>
-      </c>
-      <c r="D83" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>80</v>
-      </c>
-      <c r="D84" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>137</v>
-      </c>
-      <c r="D85" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>80</v>
-      </c>
-      <c r="D86" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>138</v>
-      </c>
-      <c r="D87" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>138</v>
-      </c>
-      <c r="D88" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>80</v>
-      </c>
-      <c r="D89" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>137</v>
-      </c>
-      <c r="D90" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>137</v>
-      </c>
-      <c r="D91" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>88</v>
-      </c>
-      <c r="D92" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>88</v>
-      </c>
-      <c r="D93" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>138</v>
-      </c>
-      <c r="D94" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>137</v>
-      </c>
-      <c r="D95" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>80</v>
-      </c>
-      <c r="D96" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>80</v>
-      </c>
-      <c r="D97" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>137</v>
-      </c>
-      <c r="D98" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>138</v>
-      </c>
-      <c r="D99" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>80</v>
-      </c>
-      <c r="D100" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>137</v>
-      </c>
-      <c r="D101" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>88</v>
-      </c>
-      <c r="D102" t="b">
-        <f>IF(B102=C102,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>138</v>
-      </c>
-      <c r="D103" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>137</v>
-      </c>
-      <c r="D104" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>138</v>
-      </c>
-      <c r="D105" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>80</v>
-      </c>
-      <c r="D106" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>137</v>
-      </c>
-      <c r="D107" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>138</v>
-      </c>
-      <c r="D108" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>80</v>
-      </c>
-      <c r="D109" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>137</v>
-      </c>
-      <c r="D110" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>138</v>
-      </c>
-      <c r="D111" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>80</v>
-      </c>
-      <c r="D112" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>138</v>
-      </c>
-      <c r="D113" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>137</v>
-      </c>
-      <c r="D114" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>138</v>
-      </c>
-      <c r="D115" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>88</v>
-      </c>
-      <c r="D116" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>88</v>
-      </c>
-      <c r="D117" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>80</v>
-      </c>
-      <c r="D118" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>88</v>
-      </c>
-      <c r="D119" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>88</v>
-      </c>
-      <c r="D120" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>88</v>
-      </c>
-      <c r="D121" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>138</v>
-      </c>
-      <c r="D122" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>138</v>
-      </c>
-      <c r="D123" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>138</v>
-      </c>
-      <c r="D124" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>80</v>
-      </c>
-      <c r="D125" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>138</v>
-      </c>
-      <c r="D126" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>88</v>
-      </c>
-      <c r="D127" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D129">
-        <f>COUNTIF(D2:D127,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="F129" t="s">
-        <v>90</v>
-      </c>
-      <c r="G129">
-        <f>SUM(D129)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F130" t="s">
-        <v>91</v>
-      </c>
-      <c r="G130">
-        <f>SUM(G129/126*100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F132" t="s">
-        <v>92</v>
-      </c>
-      <c r="G132" t="str">
-        <f>IF(G129&gt;=90,"PASS","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G149"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="17.5703125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
         <v>138</v>
       </c>
       <c r="D2" t="b">

--- a/Exam Attempt4.xlsx
+++ b/Exam Attempt4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA693395-5021-4BA9-BD49-2ADFA70D54D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89786E40-319E-42D4-9EDB-13B98472BC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="143">
   <si>
     <t>Slno</t>
   </si>
@@ -458,6 +458,15 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -482,12 +491,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -502,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,6 +541,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,16 +823,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="45" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="60.85546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -829,41 +853,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>88</v>
       </c>
       <c r="D2" t="b">
         <f>IF(B2=C2,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>137</v>
       </c>
+      <c r="C3" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D3" t="b">
         <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,185 +911,214 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D6" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>138</v>
       </c>
-      <c r="C7"/>
+      <c r="C7" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D7" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>137</v>
       </c>
-      <c r="C8"/>
+      <c r="C8" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
       </c>
-      <c r="C9"/>
+      <c r="C9" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D9" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>137</v>
       </c>
-      <c r="C10"/>
+      <c r="C10" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="C11"/>
+      <c r="C11" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D11" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
       </c>
-      <c r="C12"/>
+      <c r="C12" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>137</v>
       </c>
-      <c r="C13"/>
+      <c r="C13" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D13" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
       </c>
-      <c r="C14"/>
+      <c r="C14" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>80</v>
       </c>
-      <c r="C15"/>
+      <c r="C15" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>138</v>
       </c>
-      <c r="C16"/>
+      <c r="C16" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>138</v>
       </c>
-      <c r="C17"/>
+      <c r="C17" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D17" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>137</v>
       </c>
-      <c r="C18"/>
+      <c r="C18" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D18" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>138</v>
       </c>
-      <c r="C19"/>
+      <c r="C19" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D19" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1067,153 +1128,177 @@
       <c r="B20" t="s">
         <v>137</v>
       </c>
-      <c r="C20"/>
+      <c r="C20" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D20" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
       </c>
-      <c r="C21"/>
+      <c r="C21" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D21" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>137</v>
       </c>
-      <c r="C22"/>
+      <c r="C22" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D22" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>138</v>
       </c>
-      <c r="C23"/>
+      <c r="C23" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>137</v>
       </c>
-      <c r="C24"/>
+      <c r="C24" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D24" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>138</v>
       </c>
-      <c r="C25"/>
+      <c r="C25" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D25" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>137</v>
       </c>
-      <c r="C26"/>
+      <c r="C26" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D26" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>80</v>
       </c>
-      <c r="C27"/>
+      <c r="C27" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>88</v>
       </c>
-      <c r="C28"/>
+      <c r="C28" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D28" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>88</v>
       </c>
-      <c r="C29"/>
+      <c r="C29" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D29" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>138</v>
       </c>
-      <c r="C30"/>
+      <c r="C30" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D30" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="C31"/>
+      <c r="C31" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,192 +1308,222 @@
       <c r="B32" t="s">
         <v>80</v>
       </c>
-      <c r="C32"/>
+      <c r="C32" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>137</v>
       </c>
-      <c r="C33"/>
+      <c r="C33" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D33" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>80</v>
       </c>
-      <c r="C34"/>
+      <c r="C34" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D34" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>137</v>
       </c>
-      <c r="C35"/>
+      <c r="C35" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D35" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>137</v>
       </c>
-      <c r="C36"/>
+      <c r="C36" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D36" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
       </c>
-      <c r="C37"/>
+      <c r="C37" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D37" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>88</v>
       </c>
-      <c r="C38"/>
+      <c r="C38" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D38" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>137</v>
       </c>
-      <c r="C39"/>
+      <c r="C39" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D39" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>80</v>
       </c>
-      <c r="C40"/>
+      <c r="C40" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D40" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>88</v>
       </c>
-      <c r="C41"/>
+      <c r="C41" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D41" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>137</v>
       </c>
-      <c r="C42"/>
+      <c r="C42" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D42" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>138</v>
       </c>
-      <c r="C43"/>
+      <c r="C43" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D43" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>88</v>
       </c>
-      <c r="C44"/>
+      <c r="C44" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D44" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>137</v>
       </c>
-      <c r="C45"/>
+      <c r="C45" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D45" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>138</v>
       </c>
-      <c r="C46"/>
+      <c r="C46" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D46" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,179 +1533,207 @@
       <c r="B47" t="s">
         <v>80</v>
       </c>
-      <c r="C47"/>
+      <c r="C47" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D47" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>138</v>
       </c>
-      <c r="C48"/>
+      <c r="C48" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D48" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>138</v>
       </c>
-      <c r="C49"/>
+      <c r="C49" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D49" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>88</v>
       </c>
-      <c r="C50"/>
+      <c r="C50" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D50" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>138</v>
       </c>
-      <c r="C51"/>
+      <c r="C51" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D51" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>80</v>
       </c>
-      <c r="C52"/>
+      <c r="C52" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D52" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>137</v>
       </c>
-      <c r="C53"/>
+      <c r="C53" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D53" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>80</v>
       </c>
-      <c r="C54"/>
+      <c r="C54" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D54" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>88</v>
       </c>
-      <c r="C55"/>
+      <c r="C55" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D55" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>138</v>
       </c>
-      <c r="C56"/>
+      <c r="C56" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D56" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>88</v>
       </c>
-      <c r="C57"/>
+      <c r="C57" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D57" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>88</v>
       </c>
-      <c r="C58"/>
+      <c r="C58" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D58" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>80</v>
       </c>
-      <c r="C59"/>
+      <c r="C59" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D59" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>137</v>
       </c>
-      <c r="C60"/>
+      <c r="C60" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D60" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,886 +1743,1024 @@
       <c r="B61" t="s">
         <v>137</v>
       </c>
-      <c r="C61"/>
+      <c r="C61" s="8"/>
       <c r="D61" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>88</v>
       </c>
-      <c r="C62"/>
+      <c r="C62" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D62" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>88</v>
       </c>
-      <c r="C63"/>
+      <c r="C63" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D63" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>138</v>
       </c>
-      <c r="C64"/>
+      <c r="C64" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D64" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>88</v>
       </c>
-      <c r="C65"/>
+      <c r="C65" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D65" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>88</v>
       </c>
-      <c r="C66"/>
+      <c r="C66" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D66" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>138</v>
       </c>
-      <c r="C67"/>
+      <c r="C67" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D67" t="b">
         <f t="shared" ref="D67:D126" si="1">IF(B67=C67,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>137</v>
       </c>
-      <c r="C68"/>
+      <c r="C68" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D68" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>137</v>
       </c>
-      <c r="C69"/>
+      <c r="C69" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D69" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>80</v>
       </c>
-      <c r="C70"/>
+      <c r="C70" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D70" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>88</v>
       </c>
-      <c r="C71"/>
+      <c r="C71" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D71" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>88</v>
       </c>
-      <c r="C72"/>
+      <c r="C72" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D72" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>138</v>
       </c>
-      <c r="C73"/>
+      <c r="C73" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D73" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>137</v>
       </c>
-      <c r="C74"/>
+      <c r="C74" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D74" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>138</v>
       </c>
-      <c r="C75"/>
+      <c r="C75" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D75" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>138</v>
       </c>
-      <c r="C76"/>
+      <c r="C76" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D76" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>137</v>
       </c>
-      <c r="C77"/>
+      <c r="C77" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D77" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>88</v>
       </c>
-      <c r="C78"/>
+      <c r="C78" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D78" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>137</v>
       </c>
-      <c r="C79"/>
+      <c r="C79" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D79" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>137</v>
       </c>
-      <c r="C80"/>
+      <c r="C80" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D80" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
       </c>
-      <c r="C81"/>
+      <c r="C81" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D81" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>138</v>
       </c>
-      <c r="C82"/>
+      <c r="C82" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D82" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>88</v>
       </c>
-      <c r="C83"/>
+      <c r="C83" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D83" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>138</v>
       </c>
-      <c r="C84"/>
+      <c r="C84" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D84" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>137</v>
       </c>
-      <c r="C85"/>
+      <c r="C85" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>80</v>
       </c>
-      <c r="C86"/>
+      <c r="C86" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D86" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
-      <c r="C87"/>
+      <c r="C87" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D87" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>138</v>
       </c>
-      <c r="C88"/>
+      <c r="C88" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D88" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>138</v>
       </c>
-      <c r="C89"/>
+      <c r="C89" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D89" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>88</v>
       </c>
-      <c r="C90"/>
+      <c r="C90" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D90" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>138</v>
       </c>
-      <c r="C91"/>
+      <c r="C91" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D91" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>137</v>
       </c>
-      <c r="C92"/>
+      <c r="C92" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D92" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>137</v>
       </c>
-      <c r="C93"/>
+      <c r="C93" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D93" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>138</v>
       </c>
-      <c r="C94"/>
+      <c r="C94" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D94" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>80</v>
       </c>
-      <c r="C95"/>
+      <c r="C95" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D95" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>138</v>
       </c>
-      <c r="C96"/>
+      <c r="C96" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D96" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>88</v>
       </c>
-      <c r="C97"/>
+      <c r="C97" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D97" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>137</v>
       </c>
-      <c r="C98"/>
+      <c r="C98" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D98" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>80</v>
       </c>
-      <c r="C99"/>
+      <c r="C99" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D99" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>138</v>
       </c>
-      <c r="C100"/>
+      <c r="C100" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D100" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>138</v>
       </c>
-      <c r="C101"/>
+      <c r="C101" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D101" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>80</v>
       </c>
-      <c r="C102"/>
+      <c r="C102" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D102" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>80</v>
       </c>
-      <c r="C103"/>
+      <c r="C103" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D103" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>137</v>
       </c>
-      <c r="C104"/>
+      <c r="C104" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D104" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>137</v>
       </c>
-      <c r="C105"/>
+      <c r="C105" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D105" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>138</v>
       </c>
-      <c r="C106"/>
+      <c r="C106" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D106" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>80</v>
       </c>
-      <c r="C107"/>
+      <c r="C107" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D107" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>80</v>
       </c>
-      <c r="C108"/>
+      <c r="C108" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D108" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>138</v>
       </c>
-      <c r="C109"/>
+      <c r="C109" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D109" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>137</v>
       </c>
-      <c r="C110"/>
+      <c r="C110" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D110" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>80</v>
       </c>
-      <c r="C111"/>
+      <c r="C111" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D111" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>80</v>
       </c>
-      <c r="C112"/>
+      <c r="C112" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D112" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>137</v>
       </c>
-      <c r="C113"/>
+      <c r="C113" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D113" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>80</v>
       </c>
-      <c r="C114"/>
+      <c r="C114" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D114" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>80</v>
       </c>
-      <c r="C115"/>
+      <c r="C115" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D115" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>137</v>
       </c>
-      <c r="C116"/>
+      <c r="C116" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D116" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>88</v>
       </c>
-      <c r="C117"/>
+      <c r="C117" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D117" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>88</v>
       </c>
-      <c r="C118"/>
+      <c r="C118" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D118" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>80</v>
       </c>
-      <c r="C119"/>
+      <c r="C119" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D119" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>88</v>
       </c>
-      <c r="C120"/>
+      <c r="C120" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D120" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>137</v>
       </c>
-      <c r="C121"/>
+      <c r="C121" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D121" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>88</v>
       </c>
-      <c r="C122"/>
+      <c r="C122" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D122" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>80</v>
       </c>
-      <c r="C123"/>
+      <c r="C123" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D123" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>137</v>
       </c>
-      <c r="C124"/>
+      <c r="C124" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D124" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>88</v>
       </c>
-      <c r="C125"/>
+      <c r="C125" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D125" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>88</v>
       </c>
-      <c r="C126"/>
+      <c r="C126" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D126" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="F128" t="s">
         <v>93</v>
       </c>
       <c r="G128">
         <f>COUNTIF(D2:D126,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
         <v>94</v>
       </c>
       <c r="G129">
         <f>SUM(G128/125*100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130" spans="6:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="6:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="F131" t="s">
         <v>5</v>
       </c>
       <c r="G131" t="str">
         <f>IF(G128&gt;=92,"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D131" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:D131" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4063,7 +4344,7 @@
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4645,6 +4926,7 @@
       <c r="B48" t="s">
         <v>138</v>
       </c>
+      <c r="C48" s="7"/>
       <c r="D48" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9245,7 +9527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C126"/>
     </sheetView>
   </sheetViews>

--- a/Exam Attempt4.xlsx
+++ b/Exam Attempt4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89786E40-319E-42D4-9EDB-13B98472BC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3063122-0734-4F16-8AEF-F7B1EF37A881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,13 @@
     <sheet name="5" sheetId="7" r:id="rId5"/>
     <sheet name="Inzim" sheetId="10" r:id="rId6"/>
     <sheet name="new" sheetId="9" r:id="rId7"/>
+    <sheet name="wrong" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$D$1:$D$131</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2'!$D$1:$D$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$C$1:$C$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2'!$C$1:$C$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3'!$D$1:$D$132</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4'!$D$1:$D$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4'!$A$1:$G$107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">new!$D$1:$D$149</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="147">
   <si>
     <t>Slno</t>
   </si>
@@ -467,19 +468,38 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>sheet 1</t>
+  </si>
+  <si>
+    <t>sheet 2</t>
+  </si>
+  <si>
+    <t>my answer</t>
+  </si>
+  <si>
+    <t>sheet 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -491,7 +511,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +530,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -523,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,11 +557,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -543,11 +569,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -823,11 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -868,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -883,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -911,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -926,7 +965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -941,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -956,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -971,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -986,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1001,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1016,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1031,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1046,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1061,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1076,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1091,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1106,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1136,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1151,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1166,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1181,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1196,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1211,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1226,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1241,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1256,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1271,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1286,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1316,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1331,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1346,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1361,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1376,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1391,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1406,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1421,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1436,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1451,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1466,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1481,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1496,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1511,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1541,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1556,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1571,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1586,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1601,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1616,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1631,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1646,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1661,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1676,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1691,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1706,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1721,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1749,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1764,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1779,7 +1818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1794,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1809,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1824,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1839,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1854,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1869,7 +1908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1884,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1899,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1914,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1929,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1944,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1959,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1974,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -1989,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2004,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2019,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2034,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2049,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2064,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2079,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2094,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2109,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2124,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2139,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2154,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2169,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2184,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2199,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2214,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2229,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2244,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2259,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2274,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2289,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2304,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2319,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2334,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2349,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2364,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -2379,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2394,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -2409,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -2424,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -2439,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -2454,7 +2493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -2469,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -2484,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -2499,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -2514,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -2529,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -2544,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -2559,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -2574,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -2589,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -2604,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -2619,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -2634,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -2649,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -2664,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -2679,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -2694,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -2709,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -2724,8 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F128" t="s">
         <v>93</v>
       </c>
@@ -2734,7 +2772,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="6:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
         <v>94</v>
       </c>
@@ -2743,8 +2781,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="130" spans="6:7" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="6:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F131" t="s">
         <v>5</v>
       </c>
@@ -2754,13 +2791,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D131" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="FALSE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C131" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2768,16 +2799,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A17" sqref="A17:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="48.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="55.140625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -2797,193 +2829,229 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
       </c>
       <c r="D2" t="b">
         <f>IF(B2=C2,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D3" t="b">
         <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>80</v>
       </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D6" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D7" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D9" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>138</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D11" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>80</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D13" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>138</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D16" t="b">
         <f>IF(B16=C16,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2993,6 +3061,9 @@
       <c r="B17" t="s">
         <v>80</v>
       </c>
+      <c r="C17" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="D17" t="b">
         <f>IF(B17=C17,TRUE,FALSE)</f>
         <v>0</v>
@@ -3005,501 +3076,627 @@
       <c r="B18" t="s">
         <v>138</v>
       </c>
+      <c r="C18" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="D18" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>80</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D19" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>138</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D20" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D21" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>88</v>
       </c>
+      <c r="C22" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D22" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>88</v>
       </c>
+      <c r="C23" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>138</v>
       </c>
+      <c r="C24" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D24" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>88</v>
       </c>
+      <c r="C25" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D25" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>137</v>
       </c>
+      <c r="C26" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D26" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>80</v>
       </c>
+      <c r="C27" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>138</v>
       </c>
+      <c r="C28" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D28" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>137</v>
       </c>
+      <c r="C29" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D29" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>138</v>
       </c>
+      <c r="C30" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D30" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>137</v>
       </c>
+      <c r="C31" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>138</v>
       </c>
+      <c r="C32" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>138</v>
       </c>
+      <c r="C33" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D33" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>80</v>
       </c>
+      <c r="C34" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D34" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>138</v>
       </c>
+      <c r="C35" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D35" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>80</v>
       </c>
+      <c r="C36" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D36" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
+      <c r="C37" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D37" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>80</v>
       </c>
+      <c r="C38" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D38" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>88</v>
       </c>
+      <c r="C39" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D39" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>138</v>
       </c>
+      <c r="C40" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D40" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>138</v>
       </c>
+      <c r="C41" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D41" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>88</v>
       </c>
+      <c r="C42" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D42" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>80</v>
       </c>
+      <c r="C43" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D43" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>80</v>
       </c>
+      <c r="C44" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D44" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
       </c>
+      <c r="C45" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D45" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>88</v>
       </c>
+      <c r="C46" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D46" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>88</v>
       </c>
+      <c r="C47" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D47" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>80</v>
       </c>
+      <c r="C48" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D48" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>88</v>
       </c>
+      <c r="C49" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D49" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>138</v>
       </c>
+      <c r="C50" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D50" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>80</v>
       </c>
+      <c r="C51" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D51" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>137</v>
       </c>
+      <c r="C52" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D52" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>88</v>
       </c>
+      <c r="C53" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D53" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>138</v>
       </c>
+      <c r="C54" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D54" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>138</v>
       </c>
+      <c r="C55" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D55" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>88</v>
       </c>
+      <c r="C56" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D56" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>80</v>
       </c>
+      <c r="C57" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D57" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>138</v>
       </c>
+      <c r="C58" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D58" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>80</v>
       </c>
+      <c r="C59" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D59" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3509,69 +3706,87 @@
       <c r="B60" t="s">
         <v>88</v>
       </c>
+      <c r="C60" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="D60" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>138</v>
       </c>
+      <c r="C61" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D61" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>137</v>
       </c>
+      <c r="C62" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D62" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>80</v>
       </c>
+      <c r="C63" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D63" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>138</v>
       </c>
+      <c r="C64" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D64" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>137</v>
       </c>
+      <c r="C65" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D65" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3581,609 +3796,762 @@
       <c r="B66" t="s">
         <v>138</v>
       </c>
+      <c r="C66" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="D66" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>138</v>
       </c>
+      <c r="C67" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D67" t="b">
         <f t="shared" ref="D67:D126" si="1">IF(B67=C67,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>88</v>
       </c>
+      <c r="C68" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D68" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>137</v>
       </c>
+      <c r="C69" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D69" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>88</v>
       </c>
+      <c r="C70" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D70" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>80</v>
       </c>
+      <c r="C71" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D71" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>88</v>
       </c>
+      <c r="C72" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D72" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>80</v>
       </c>
+      <c r="C73" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D73" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>138</v>
       </c>
+      <c r="C74" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D74" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>138</v>
       </c>
+      <c r="C75" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D75" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>138</v>
       </c>
+      <c r="C76" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D76" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>88</v>
       </c>
+      <c r="C77" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D77" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>88</v>
       </c>
+      <c r="C78" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D78" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
+      <c r="C79" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D79" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
       </c>
+      <c r="C80" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D80" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>88</v>
       </c>
+      <c r="C81" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D81" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>138</v>
       </c>
+      <c r="C82" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D82" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>80</v>
       </c>
+      <c r="C83" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D83" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>88</v>
       </c>
+      <c r="C84" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D84" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>88</v>
       </c>
+      <c r="C85" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>88</v>
       </c>
+      <c r="C86" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D86" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
+      <c r="C87" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D87" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>138</v>
       </c>
+      <c r="C88" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D88" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>137</v>
       </c>
+      <c r="C89" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D89" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>88</v>
       </c>
+      <c r="C90" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D90" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>138</v>
       </c>
+      <c r="C91" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D91" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>137</v>
       </c>
+      <c r="C92" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D92" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>137</v>
       </c>
+      <c r="C93" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D93" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>138</v>
       </c>
+      <c r="C94" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D94" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>80</v>
       </c>
+      <c r="C95" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D95" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>80</v>
       </c>
+      <c r="C96" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D96" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>138</v>
       </c>
+      <c r="C97" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D97" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>137</v>
       </c>
+      <c r="C98" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D98" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>138</v>
       </c>
+      <c r="C99" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D99" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>80</v>
       </c>
+      <c r="C100" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D100" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>80</v>
       </c>
+      <c r="C101" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D101" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>138</v>
       </c>
+      <c r="C102" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D102" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>80</v>
       </c>
+      <c r="C103" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D103" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>138</v>
       </c>
+      <c r="C104" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D104" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>88</v>
       </c>
+      <c r="C105" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D105" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>88</v>
       </c>
+      <c r="C106" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D106" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>137</v>
       </c>
+      <c r="C107" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D107" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>138</v>
       </c>
+      <c r="C108" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D108" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>138</v>
       </c>
+      <c r="C109" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D109" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>137</v>
       </c>
+      <c r="C110" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D110" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>137</v>
       </c>
+      <c r="C111" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D111" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>138</v>
       </c>
+      <c r="C112" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D112" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>80</v>
       </c>
+      <c r="C113" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D113" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>137</v>
       </c>
+      <c r="C114" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D114" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>80</v>
       </c>
+      <c r="C115" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D115" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>80</v>
       </c>
+      <c r="C116" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D116" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4193,148 +4561,185 @@
       <c r="B117" t="s">
         <v>80</v>
       </c>
+      <c r="C117" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="D117" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>80</v>
       </c>
+      <c r="C118" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D118" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>88</v>
       </c>
+      <c r="C119" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D119" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>138</v>
       </c>
+      <c r="C120" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D120" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>88</v>
       </c>
+      <c r="C121" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D121" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>137</v>
       </c>
+      <c r="C122" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D122" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>137</v>
       </c>
+      <c r="C123" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D123" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>138</v>
       </c>
+      <c r="C124" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D124" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>138</v>
       </c>
+      <c r="C125" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D125" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>138</v>
       </c>
+      <c r="C126" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D126" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="5:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
         <v>95</v>
       </c>
       <c r="F129">
         <f>COUNTIF(D2:D126,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
         <v>96</v>
       </c>
       <c r="F130">
         <f>SUM(F129/125*100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+        <v>95.199999999999989</v>
+      </c>
+    </row>
+    <row r="131" spans="5:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="5:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
         <v>5</v>
       </c>
       <c r="F132" t="str">
         <f>IF(F129&gt;=92,"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D132" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="C1:C132" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5904,16 +6309,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="35.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
     <col min="3" max="3" width="41.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
@@ -5930,28 +6336,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
       </c>
       <c r="D2" t="b">
         <f>IF(B2=C2,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>138</v>
       </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
       <c r="D3" t="b">
         <f t="shared" ref="D3:D27" si="0">IF(B3=C3,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5961,153 +6373,192 @@
       <c r="B4" t="s">
         <v>88</v>
       </c>
+      <c r="C4" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
       </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>88</v>
       </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
       <c r="D6" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>80</v>
       </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
       <c r="D7" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>138</v>
       </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
       <c r="D8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>138</v>
       </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
       <c r="D9" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>138</v>
       </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>88</v>
       </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
       <c r="D11" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>137</v>
       </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>138</v>
       </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
       <c r="D13" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>138</v>
       </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>80</v>
       </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>138</v>
       </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6117,69 +6568,87 @@
       <c r="B17" t="s">
         <v>138</v>
       </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
       <c r="D17" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>80</v>
       </c>
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
       <c r="D18" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>80</v>
       </c>
+      <c r="C19" t="s">
+        <v>139</v>
+      </c>
       <c r="D19" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>80</v>
       </c>
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
       <c r="D20" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>80</v>
       </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
       <c r="D21" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>137</v>
       </c>
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
       <c r="D22" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -6189,153 +6658,190 @@
       <c r="B23" t="s">
         <v>137</v>
       </c>
+      <c r="C23" s="11"/>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>137</v>
       </c>
+      <c r="C24" t="s">
+        <v>141</v>
+      </c>
       <c r="D24" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>137</v>
       </c>
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
       <c r="D25" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>88</v>
       </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
       <c r="D26" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>88</v>
       </c>
+      <c r="C27" t="s">
+        <v>140</v>
+      </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>138</v>
       </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
       <c r="D28" t="b">
         <f t="shared" ref="D28:D82" si="1">IF(B28=C28,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>137</v>
       </c>
+      <c r="C29" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="D29" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>88</v>
       </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
       <c r="D30" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>137</v>
       </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
       <c r="D31" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>80</v>
       </c>
+      <c r="C32" t="s">
+        <v>139</v>
+      </c>
       <c r="D32" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>137</v>
       </c>
+      <c r="C33" t="s">
+        <v>141</v>
+      </c>
       <c r="D33" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>138</v>
       </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
       <c r="D34" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>80</v>
       </c>
+      <c r="C35" t="s">
+        <v>139</v>
+      </c>
       <c r="D35" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -6345,117 +6851,145 @@
       <c r="B36" t="s">
         <v>137</v>
       </c>
+      <c r="C36" s="11"/>
       <c r="D36" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
       </c>
+      <c r="C37" t="s">
+        <v>140</v>
+      </c>
       <c r="D37" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>88</v>
       </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
       <c r="D38" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>138</v>
       </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
       <c r="D39" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>88</v>
       </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
       <c r="D40" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>137</v>
       </c>
+      <c r="C41" t="s">
+        <v>141</v>
+      </c>
       <c r="D41" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>80</v>
       </c>
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
       <c r="D42" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>138</v>
       </c>
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
       <c r="D43" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>138</v>
       </c>
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
       <c r="D44" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
       </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
       <c r="D45" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -6465,153 +6999,192 @@
       <c r="B46" t="s">
         <v>88</v>
       </c>
+      <c r="C46" s="11" t="s">
+        <v>139</v>
+      </c>
       <c r="D46" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>137</v>
       </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
       <c r="D47" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>80</v>
       </c>
+      <c r="C48" t="s">
+        <v>139</v>
+      </c>
       <c r="D48" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>137</v>
       </c>
+      <c r="C49" t="s">
+        <v>141</v>
+      </c>
       <c r="D49" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>138</v>
       </c>
+      <c r="C50" t="s">
+        <v>142</v>
+      </c>
       <c r="D50" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>80</v>
       </c>
+      <c r="C51" t="s">
+        <v>139</v>
+      </c>
       <c r="D51" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>80</v>
       </c>
+      <c r="C52" t="s">
+        <v>139</v>
+      </c>
       <c r="D52" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>138</v>
       </c>
+      <c r="C53" t="s">
+        <v>142</v>
+      </c>
       <c r="D53" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>138</v>
       </c>
+      <c r="C54" t="s">
+        <v>142</v>
+      </c>
       <c r="D54" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>138</v>
       </c>
+      <c r="C55" t="s">
+        <v>142</v>
+      </c>
       <c r="D55" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>138</v>
       </c>
+      <c r="C56" s="11" t="s">
+        <v>142</v>
+      </c>
       <c r="D56" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>80</v>
       </c>
+      <c r="C57" t="s">
+        <v>139</v>
+      </c>
       <c r="D57" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>138</v>
       </c>
+      <c r="C58" t="s">
+        <v>142</v>
+      </c>
       <c r="D58" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6621,69 +7194,87 @@
       <c r="B59" t="s">
         <v>138</v>
       </c>
+      <c r="C59" s="11" t="s">
+        <v>139</v>
+      </c>
       <c r="D59" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>80</v>
       </c>
+      <c r="C60" t="s">
+        <v>139</v>
+      </c>
       <c r="D60" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>88</v>
       </c>
+      <c r="C61" t="s">
+        <v>140</v>
+      </c>
       <c r="D61" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>137</v>
       </c>
+      <c r="C62" t="s">
+        <v>141</v>
+      </c>
       <c r="D62" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>88</v>
       </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
       <c r="D63" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>80</v>
       </c>
+      <c r="C64" t="s">
+        <v>139</v>
+      </c>
       <c r="D64" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -6693,478 +7284,597 @@
       <c r="B65" t="s">
         <v>88</v>
       </c>
+      <c r="C65" t="s">
+        <v>141</v>
+      </c>
       <c r="D65" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>80</v>
       </c>
+      <c r="C66" t="s">
+        <v>139</v>
+      </c>
       <c r="D66" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>138</v>
       </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
       <c r="D67" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>80</v>
       </c>
+      <c r="C68" t="s">
+        <v>139</v>
+      </c>
       <c r="D68" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>137</v>
       </c>
+      <c r="C69" t="s">
+        <v>141</v>
+      </c>
       <c r="D69" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>137</v>
       </c>
+      <c r="C70" t="s">
+        <v>141</v>
+      </c>
       <c r="D70" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>88</v>
       </c>
+      <c r="C71" t="s">
+        <v>140</v>
+      </c>
       <c r="D71" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>138</v>
       </c>
+      <c r="C72" t="s">
+        <v>142</v>
+      </c>
       <c r="D72" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>88</v>
       </c>
+      <c r="C73" t="s">
+        <v>140</v>
+      </c>
       <c r="D73" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>80</v>
       </c>
+      <c r="C74" t="s">
+        <v>139</v>
+      </c>
       <c r="D74" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>138</v>
       </c>
+      <c r="C75" t="s">
+        <v>142</v>
+      </c>
       <c r="D75" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>137</v>
       </c>
+      <c r="C76" t="s">
+        <v>141</v>
+      </c>
       <c r="D76" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>80</v>
       </c>
+      <c r="C77" t="s">
+        <v>139</v>
+      </c>
       <c r="D77" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>138</v>
       </c>
+      <c r="C78" t="s">
+        <v>142</v>
+      </c>
       <c r="D78" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>137</v>
       </c>
+      <c r="C79" t="s">
+        <v>141</v>
+      </c>
       <c r="D79" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>137</v>
       </c>
+      <c r="C80" t="s">
+        <v>141</v>
+      </c>
       <c r="D80" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>88</v>
       </c>
+      <c r="C81" t="s">
+        <v>140</v>
+      </c>
       <c r="D81" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>138</v>
       </c>
+      <c r="C82" t="s">
+        <v>142</v>
+      </c>
       <c r="D82" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>80</v>
       </c>
+      <c r="C83" t="s">
+        <v>139</v>
+      </c>
       <c r="D83" t="b">
         <f t="shared" ref="D83:D101" si="2">IF(B83=C83,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>88</v>
       </c>
+      <c r="C84" t="s">
+        <v>140</v>
+      </c>
       <c r="D84" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>80</v>
       </c>
+      <c r="C85" t="s">
+        <v>139</v>
+      </c>
       <c r="D85" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>80</v>
       </c>
+      <c r="C86" t="s">
+        <v>139</v>
+      </c>
       <c r="D86" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>137</v>
       </c>
+      <c r="C87" t="s">
+        <v>141</v>
+      </c>
       <c r="D87" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>137</v>
       </c>
+      <c r="C88" t="s">
+        <v>141</v>
+      </c>
       <c r="D88" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>137</v>
       </c>
+      <c r="C89" t="s">
+        <v>141</v>
+      </c>
       <c r="D89" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>138</v>
       </c>
+      <c r="C90" t="s">
+        <v>142</v>
+      </c>
       <c r="D90" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>138</v>
       </c>
+      <c r="C91" t="s">
+        <v>142</v>
+      </c>
       <c r="D91" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>80</v>
       </c>
+      <c r="C92" t="s">
+        <v>139</v>
+      </c>
       <c r="D92" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>137</v>
       </c>
+      <c r="C93" t="s">
+        <v>141</v>
+      </c>
       <c r="D93" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>80</v>
       </c>
+      <c r="C94" t="s">
+        <v>139</v>
+      </c>
       <c r="D94" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>138</v>
       </c>
+      <c r="C95" t="s">
+        <v>142</v>
+      </c>
       <c r="D95" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>88</v>
       </c>
+      <c r="C96" t="s">
+        <v>140</v>
+      </c>
       <c r="D96" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>88</v>
       </c>
+      <c r="C97" t="s">
+        <v>140</v>
+      </c>
       <c r="D97" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>138</v>
       </c>
+      <c r="C98" t="s">
+        <v>142</v>
+      </c>
       <c r="D98" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>137</v>
       </c>
+      <c r="C99" t="s">
+        <v>141</v>
+      </c>
       <c r="D99" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>80</v>
       </c>
+      <c r="C100" t="s">
+        <v>139</v>
+      </c>
       <c r="D100" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>80</v>
       </c>
+      <c r="C101" t="s">
+        <v>139</v>
+      </c>
       <c r="D101" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D102">
         <f>COUNTIF(D2:D101,TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
         <v>90</v>
       </c>
       <c r="G104">
         <f>SUM(D102)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
         <v>91</v>
       </c>
       <c r="G105">
         <f>SUM(G104/100*100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
         <v>92</v>
       </c>
       <c r="G107" t="str">
         <f>IF(G104&gt;=73,"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D107" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:G107" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12864,4 +13574,339 @@
   <autoFilter ref="D1:D149" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A21AD4F-F6D0-4D46-990E-A688B2784854}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="b">
+        <f>IF(B2=C2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="b">
+        <f t="shared" ref="D3:D30" si="0">IF(B3=C3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Exam Attempt4.xlsx
+++ b/Exam Attempt4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3063122-0734-4F16-8AEF-F7B1EF37A881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E69A39-8D9A-4B99-B4CB-E36DC6190378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="148">
   <si>
     <t>Slno</t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>sheet 4</t>
+  </si>
+  <si>
+    <t>sheet3</t>
   </si>
 </sst>
 </file>
@@ -4746,16 +4749,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="50.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" customWidth="1"/>
     <col min="3" max="3" width="39.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
@@ -4772,845 +4776,1054 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
       </c>
       <c r="D2" t="b">
         <f>IF(B2=C2,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
       </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
       <c r="D3" t="b">
         <f t="shared" ref="D3:D67" si="0">IF(B3=C3,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
       </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
       </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>88</v>
       </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
       <c r="D6" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>80</v>
       </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
       <c r="D7" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
       </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
       <c r="D8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>138</v>
       </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
       <c r="D9" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>137</v>
       </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>80</v>
       </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
       <c r="D11" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
       </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>137</v>
       </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
       <c r="D13" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>138</v>
       </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>80</v>
       </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>138</v>
       </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>137</v>
       </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
       <c r="D17" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>88</v>
       </c>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
       <c r="D18" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>137</v>
       </c>
+      <c r="C19" t="s">
+        <v>141</v>
+      </c>
       <c r="D19" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>138</v>
       </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
       <c r="D20" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>137</v>
       </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
       <c r="D21" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>80</v>
       </c>
+      <c r="C22" t="s">
+        <v>139</v>
+      </c>
       <c r="D22" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>80</v>
       </c>
+      <c r="C23" t="s">
+        <v>139</v>
+      </c>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>80</v>
       </c>
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
       <c r="D24" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>88</v>
       </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
       <c r="D25" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>80</v>
       </c>
+      <c r="C26" t="s">
+        <v>139</v>
+      </c>
       <c r="D26" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>80</v>
       </c>
+      <c r="C27" t="s">
+        <v>139</v>
+      </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>80</v>
       </c>
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
       <c r="D28" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>138</v>
       </c>
+      <c r="C29" t="s">
+        <v>142</v>
+      </c>
       <c r="D29" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>137</v>
       </c>
+      <c r="C30" t="s">
+        <v>141</v>
+      </c>
       <c r="D30" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>138</v>
       </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>80</v>
       </c>
+      <c r="C32" t="s">
+        <v>139</v>
+      </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>80</v>
       </c>
+      <c r="C33" t="s">
+        <v>139</v>
+      </c>
       <c r="D33" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>80</v>
       </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
       <c r="D34" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>88</v>
       </c>
+      <c r="C35" t="s">
+        <v>140</v>
+      </c>
       <c r="D35" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>88</v>
       </c>
+      <c r="C36" t="s">
+        <v>140</v>
+      </c>
       <c r="D36" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>138</v>
       </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
       <c r="D37" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>138</v>
       </c>
+      <c r="C38" t="s">
+        <v>142</v>
+      </c>
       <c r="D38" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>139</v>
       </c>
+      <c r="C39" t="s">
+        <v>139</v>
+      </c>
       <c r="D39" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>138</v>
       </c>
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
       <c r="D40" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>137</v>
       </c>
+      <c r="C41" t="s">
+        <v>141</v>
+      </c>
       <c r="D41" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>137</v>
       </c>
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
       <c r="D42" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>88</v>
       </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
       <c r="D43" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>138</v>
       </c>
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
       <c r="D44" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>138</v>
       </c>
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
       <c r="D45" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>137</v>
       </c>
+      <c r="C46" t="s">
+        <v>141</v>
+      </c>
       <c r="D46" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>137</v>
       </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
       <c r="D47" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="D48" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>88</v>
       </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
       <c r="D49" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>88</v>
       </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
       <c r="D50" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>80</v>
       </c>
+      <c r="C51" t="s">
+        <v>139</v>
+      </c>
       <c r="D51" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>88</v>
       </c>
+      <c r="C52" t="s">
+        <v>140</v>
+      </c>
       <c r="D52" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>137</v>
       </c>
+      <c r="C53" t="s">
+        <v>141</v>
+      </c>
       <c r="D53" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>80</v>
       </c>
+      <c r="C54" t="s">
+        <v>139</v>
+      </c>
       <c r="D54" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>88</v>
       </c>
+      <c r="C55" t="s">
+        <v>140</v>
+      </c>
       <c r="D55" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>80</v>
       </c>
+      <c r="C56" t="s">
+        <v>139</v>
+      </c>
       <c r="D56" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>88</v>
       </c>
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
       <c r="D57" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>137</v>
       </c>
+      <c r="C58" t="s">
+        <v>141</v>
+      </c>
       <c r="D58" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>137</v>
       </c>
+      <c r="C59" t="s">
+        <v>141</v>
+      </c>
       <c r="D59" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>88</v>
       </c>
+      <c r="C60" t="s">
+        <v>140</v>
+      </c>
       <c r="D60" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>80</v>
       </c>
+      <c r="C61" t="s">
+        <v>139</v>
+      </c>
       <c r="D61" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>80</v>
       </c>
+      <c r="C62" t="s">
+        <v>139</v>
+      </c>
       <c r="D62" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>138</v>
       </c>
+      <c r="C63" t="s">
+        <v>142</v>
+      </c>
       <c r="D63" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>80</v>
       </c>
+      <c r="C64" t="s">
+        <v>139</v>
+      </c>
       <c r="D64" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>137</v>
       </c>
+      <c r="C65" t="s">
+        <v>141</v>
+      </c>
       <c r="D65" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>137</v>
       </c>
+      <c r="C66" t="s">
+        <v>141</v>
+      </c>
       <c r="D66" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>137</v>
       </c>
+      <c r="C67" t="s">
+        <v>141</v>
+      </c>
       <c r="D67" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>137</v>
       </c>
+      <c r="C68" t="s">
+        <v>141</v>
+      </c>
       <c r="D68" t="b">
         <f t="shared" ref="D68" si="1">IF(B68=C68,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>138</v>
       </c>
+      <c r="C69" t="s">
+        <v>142</v>
+      </c>
       <c r="D69" t="b">
         <f>IF(B69=C69,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>88</v>
       </c>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
       <c r="D70" t="b">
         <f t="shared" ref="D70:D126" si="2">IF(B70=C70,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>80</v>
       </c>
+      <c r="C71" t="s">
+        <v>139</v>
+      </c>
       <c r="D71" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -5625,124 +5838,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>137</v>
       </c>
+      <c r="C73" t="s">
+        <v>141</v>
+      </c>
       <c r="D73" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>80</v>
       </c>
+      <c r="C74" t="s">
+        <v>139</v>
+      </c>
       <c r="D74" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>88</v>
       </c>
+      <c r="C75" t="s">
+        <v>140</v>
+      </c>
       <c r="D75" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>137</v>
       </c>
+      <c r="C76" t="s">
+        <v>141</v>
+      </c>
       <c r="D76" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>137</v>
       </c>
+      <c r="C77" t="s">
+        <v>141</v>
+      </c>
       <c r="D77" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>137</v>
       </c>
+      <c r="C78" t="s">
+        <v>141</v>
+      </c>
       <c r="D78" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>138</v>
       </c>
+      <c r="C79" t="s">
+        <v>142</v>
+      </c>
       <c r="D79" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
       </c>
+      <c r="C80" t="s">
+        <v>140</v>
+      </c>
       <c r="D80" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>138</v>
       </c>
+      <c r="C81" t="s">
+        <v>142</v>
+      </c>
       <c r="D81" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>137</v>
       </c>
+      <c r="C82" t="s">
+        <v>141</v>
+      </c>
       <c r="D82" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5752,141 +5995,177 @@
       <c r="B83" t="s">
         <v>88</v>
       </c>
+      <c r="C83" t="s">
+        <v>142</v>
+      </c>
       <c r="D83" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>88</v>
       </c>
+      <c r="C84" t="s">
+        <v>140</v>
+      </c>
       <c r="D84" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>137</v>
       </c>
+      <c r="C85" t="s">
+        <v>141</v>
+      </c>
       <c r="D85" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>138</v>
       </c>
+      <c r="C86" t="s">
+        <v>142</v>
+      </c>
       <c r="D86" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>80</v>
       </c>
+      <c r="C87" t="s">
+        <v>139</v>
+      </c>
       <c r="D87" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>80</v>
       </c>
+      <c r="C88" t="s">
+        <v>139</v>
+      </c>
       <c r="D88" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>80</v>
       </c>
+      <c r="C89" t="s">
+        <v>139</v>
+      </c>
       <c r="D89" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>80</v>
       </c>
+      <c r="C90" t="s">
+        <v>139</v>
+      </c>
       <c r="D90" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>80</v>
       </c>
+      <c r="C91" t="s">
+        <v>139</v>
+      </c>
       <c r="D91" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>137</v>
       </c>
+      <c r="C92" t="s">
+        <v>141</v>
+      </c>
       <c r="D92" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>137</v>
       </c>
+      <c r="C93" t="s">
+        <v>141</v>
+      </c>
       <c r="D93" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>88</v>
       </c>
+      <c r="C94" t="s">
+        <v>140</v>
+      </c>
       <c r="D94" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -5901,376 +6180,469 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>80</v>
       </c>
+      <c r="C96" t="s">
+        <v>139</v>
+      </c>
       <c r="D96" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>137</v>
       </c>
+      <c r="C97" t="s">
+        <v>141</v>
+      </c>
       <c r="D97" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>138</v>
       </c>
+      <c r="C98" t="s">
+        <v>142</v>
+      </c>
       <c r="D98" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>138</v>
       </c>
+      <c r="C99" t="s">
+        <v>142</v>
+      </c>
       <c r="D99" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>137</v>
       </c>
+      <c r="C100" t="s">
+        <v>141</v>
+      </c>
       <c r="D100" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>137</v>
       </c>
+      <c r="C101" t="s">
+        <v>141</v>
+      </c>
       <c r="D101" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>138</v>
       </c>
+      <c r="C102" t="s">
+        <v>142</v>
+      </c>
       <c r="D102" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>80</v>
       </c>
+      <c r="C103" t="s">
+        <v>139</v>
+      </c>
       <c r="D103" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>137</v>
       </c>
+      <c r="C104" t="s">
+        <v>141</v>
+      </c>
       <c r="D104" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>88</v>
       </c>
+      <c r="C105" t="s">
+        <v>140</v>
+      </c>
       <c r="D105" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>138</v>
       </c>
+      <c r="C106" t="s">
+        <v>142</v>
+      </c>
       <c r="D106" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>80</v>
       </c>
+      <c r="C107" t="s">
+        <v>139</v>
+      </c>
       <c r="D107" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>80</v>
       </c>
+      <c r="C108" t="s">
+        <v>139</v>
+      </c>
       <c r="D108" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>88</v>
       </c>
+      <c r="C109" t="s">
+        <v>140</v>
+      </c>
       <c r="D109" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>80</v>
       </c>
+      <c r="C110" t="s">
+        <v>139</v>
+      </c>
       <c r="D110" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>88</v>
       </c>
+      <c r="C111" t="s">
+        <v>140</v>
+      </c>
       <c r="D111" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>88</v>
       </c>
+      <c r="C112" t="s">
+        <v>140</v>
+      </c>
       <c r="D112" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>137</v>
       </c>
+      <c r="C113" t="s">
+        <v>141</v>
+      </c>
       <c r="D113" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>80</v>
       </c>
+      <c r="C114" t="s">
+        <v>139</v>
+      </c>
       <c r="D114" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>138</v>
       </c>
+      <c r="C115" t="s">
+        <v>142</v>
+      </c>
       <c r="D115" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>137</v>
       </c>
+      <c r="C116" t="s">
+        <v>141</v>
+      </c>
       <c r="D116" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>138</v>
       </c>
+      <c r="C117" t="s">
+        <v>142</v>
+      </c>
       <c r="D117" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>138</v>
       </c>
+      <c r="C118" t="s">
+        <v>142</v>
+      </c>
       <c r="D118" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>88</v>
       </c>
+      <c r="C119" t="s">
+        <v>140</v>
+      </c>
       <c r="D119" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>80</v>
       </c>
+      <c r="C120" t="s">
+        <v>139</v>
+      </c>
       <c r="D120" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>138</v>
       </c>
+      <c r="C121" t="s">
+        <v>142</v>
+      </c>
       <c r="D121" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>138</v>
       </c>
+      <c r="C122" t="s">
+        <v>142</v>
+      </c>
       <c r="D122" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>137</v>
       </c>
+      <c r="C123" t="s">
+        <v>141</v>
+      </c>
       <c r="D123" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>138</v>
       </c>
+      <c r="C124" t="s">
+        <v>142</v>
+      </c>
       <c r="D124" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>137</v>
       </c>
+      <c r="C125" t="s">
+        <v>141</v>
+      </c>
       <c r="D125" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>80</v>
       </c>
+      <c r="C126" t="s">
+        <v>139</v>
+      </c>
       <c r="D126" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="5:6" x14ac:dyDescent="0.25">
@@ -6279,7 +6651,7 @@
       </c>
       <c r="F129">
         <f>COUNTIF(D2:D126,TRUE)</f>
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="5:6" x14ac:dyDescent="0.25">
@@ -6288,7 +6660,7 @@
       </c>
       <c r="F130">
         <f>SUM(F129/125*100)</f>
-        <v>0</v>
+        <v>97.6</v>
       </c>
     </row>
     <row r="132" spans="5:6" x14ac:dyDescent="0.25">
@@ -6297,11 +6669,17 @@
       </c>
       <c r="F132" t="str">
         <f>IF(F129&gt;=92,"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D132" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="D1:D132" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6312,7 +6690,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
@@ -13578,15 +13956,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A21AD4F-F6D0-4D46-990E-A688B2784854}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13624,7 +14002,7 @@
         <v>137</v>
       </c>
       <c r="D3" t="b">
-        <f t="shared" ref="D3:D30" si="0">IF(B3=C3,TRUE,FALSE)</f>
+        <f t="shared" ref="D3:D34" si="0">IF(B3=C3,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -13792,14 +14170,26 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>146</v>
+      <c r="A21" s="1">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
         <v>88</v>
@@ -13811,10 +14201,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
@@ -13822,32 +14212,16 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A25" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>88</v>
@@ -13859,7 +14233,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
         <v>138</v>
@@ -13871,10 +14245,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="D28" t="b">
         <f t="shared" si="0"/>
@@ -13883,7 +14257,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>137</v>
@@ -13895,12 +14269,60 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>55</v>
       </c>
-      <c r="B30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" t="b">
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Exam Attempt4.xlsx
+++ b/Exam Attempt4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stratumhr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyber\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E69A39-8D9A-4B99-B4CB-E36DC6190378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -27,9 +26,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2'!$C$1:$C$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3'!$D$1:$D$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4'!$A$1:$G$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Inzim!$D$1:$D$131</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">new!$D$1:$D$149</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="150">
   <si>
     <t>Slno</t>
   </si>
@@ -484,11 +484,17 @@
   <si>
     <t>sheet3</t>
   </si>
+  <si>
+    <t>PassS lead</t>
+  </si>
+  <si>
+    <t>inzmam</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -865,7 +871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2794,14 +2800,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C131" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:C131"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F132"/>
   <sheetViews>
@@ -4738,7 +4744,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C132" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="C1:C132">
     <filterColumn colId="0">
       <colorFilter dxfId="0"/>
     </filterColumn>
@@ -4748,11 +4754,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
@@ -6673,9 +6679,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D132" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="D1:D132">
     <filterColumn colId="0">
-      <filters blank="1">
+      <filters>
         <filter val="FALSE"/>
       </filters>
     </filterColumn>
@@ -6686,7 +6692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G107"/>
   <sheetViews>
@@ -8246,7 +8252,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G107" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <autoFilter ref="A1:G107">
     <filterColumn colId="3">
       <filters>
         <filter val="FALSE"/>
@@ -8259,7 +8265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10612,17 +10618,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C126"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
@@ -10638,448 +10645,559 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
       </c>
       <c r="D2" t="b">
         <f>IF(B2=C2,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
       </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
       <c r="D3" t="b">
         <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
       </c>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>138</v>
       </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>137</v>
       </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
       <c r="D6" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>138</v>
       </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
       <c r="D7" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>138</v>
       </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
       <c r="D8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
       </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
       <c r="D9" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>138</v>
       </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>80</v>
       </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
       <c r="D11" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>137</v>
       </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>88</v>
       </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
       <c r="D13" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>137</v>
       </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>138</v>
       </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>138</v>
       </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>88</v>
       </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
       <c r="D17" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>137</v>
       </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
       <c r="D18" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>88</v>
       </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
       <c r="D19" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>138</v>
       </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
       <c r="D20" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
       </c>
+      <c r="C21" t="s">
+        <v>140</v>
+      </c>
       <c r="D21" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>88</v>
       </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
       <c r="D22" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>138</v>
       </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>88</v>
       </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
       <c r="D24" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>138</v>
       </c>
+      <c r="C25" t="s">
+        <v>142</v>
+      </c>
       <c r="D25" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>137</v>
       </c>
+      <c r="C26" t="s">
+        <v>141</v>
+      </c>
       <c r="D26" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>88</v>
       </c>
+      <c r="C27" t="s">
+        <v>140</v>
+      </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>137</v>
       </c>
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
       <c r="D28" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>137</v>
       </c>
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
       <c r="D29" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>80</v>
       </c>
+      <c r="C30" t="s">
+        <v>139</v>
+      </c>
       <c r="D30" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>88</v>
       </c>
+      <c r="C31" t="s">
+        <v>140</v>
+      </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>137</v>
       </c>
+      <c r="C32" t="s">
+        <v>141</v>
+      </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>138</v>
       </c>
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
       <c r="D33" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>138</v>
       </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
       <c r="D34" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>137</v>
       </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
       <c r="D35" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>80</v>
       </c>
+      <c r="C36" t="s">
+        <v>139</v>
+      </c>
       <c r="D36" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
       </c>
+      <c r="C37" t="s">
+        <v>140</v>
+      </c>
       <c r="D37" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>80</v>
       </c>
+      <c r="C38" t="s">
+        <v>139</v>
+      </c>
       <c r="D38" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -11089,201 +11207,252 @@
       <c r="B39" t="s">
         <v>138</v>
       </c>
+      <c r="C39" t="s">
+        <v>139</v>
+      </c>
       <c r="D39" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>80</v>
       </c>
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
       <c r="D40" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>137</v>
       </c>
+      <c r="C41" t="s">
+        <v>141</v>
+      </c>
       <c r="D41" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>138</v>
       </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
       <c r="D42" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>138</v>
       </c>
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
       <c r="D43" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>80</v>
       </c>
+      <c r="C44" t="s">
+        <v>139</v>
+      </c>
       <c r="D44" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>137</v>
       </c>
+      <c r="C45" t="s">
+        <v>141</v>
+      </c>
       <c r="D45" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>88</v>
       </c>
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
       <c r="D46" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>137</v>
       </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
       <c r="D47" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>138</v>
       </c>
+      <c r="C48" t="s">
+        <v>142</v>
+      </c>
       <c r="D48" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>138</v>
       </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
       <c r="D49" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>80</v>
       </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
       <c r="D50" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>137</v>
       </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
       <c r="D51" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>137</v>
       </c>
+      <c r="C52" t="s">
+        <v>141</v>
+      </c>
       <c r="D52" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>88</v>
       </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
       <c r="D53" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>88</v>
       </c>
+      <c r="C54" t="s">
+        <v>140</v>
+      </c>
       <c r="D54" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>80</v>
       </c>
+      <c r="C55" t="s">
+        <v>139</v>
+      </c>
       <c r="D55" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -11293,129 +11462,162 @@
       <c r="B56" t="s">
         <v>138</v>
       </c>
+      <c r="C56" t="s">
+        <v>139</v>
+      </c>
       <c r="D56" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>88</v>
       </c>
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
       <c r="D57" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>137</v>
       </c>
+      <c r="C58" t="s">
+        <v>141</v>
+      </c>
       <c r="D58" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>88</v>
       </c>
+      <c r="C59" t="s">
+        <v>140</v>
+      </c>
       <c r="D59" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>137</v>
       </c>
+      <c r="C60" t="s">
+        <v>141</v>
+      </c>
       <c r="D60" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>88</v>
       </c>
+      <c r="C61" t="s">
+        <v>140</v>
+      </c>
       <c r="D61" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>80</v>
       </c>
+      <c r="C62" t="s">
+        <v>139</v>
+      </c>
       <c r="D62" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>138</v>
       </c>
+      <c r="C63" t="s">
+        <v>142</v>
+      </c>
       <c r="D63" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>88</v>
       </c>
+      <c r="C64" t="s">
+        <v>140</v>
+      </c>
       <c r="D64" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>137</v>
       </c>
+      <c r="C65" t="s">
+        <v>141</v>
+      </c>
       <c r="D65" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>137</v>
       </c>
+      <c r="C66" t="s">
+        <v>141</v>
+      </c>
       <c r="D66" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -11425,405 +11627,507 @@
       <c r="B67" t="s">
         <v>137</v>
       </c>
+      <c r="C67" t="s">
+        <v>139</v>
+      </c>
       <c r="D67" t="b">
         <f t="shared" ref="D67:D126" si="1">IF(B67=C67,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>88</v>
       </c>
+      <c r="C68" t="s">
+        <v>140</v>
+      </c>
       <c r="D68" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>138</v>
       </c>
+      <c r="C69" t="s">
+        <v>142</v>
+      </c>
       <c r="D69" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>137</v>
       </c>
+      <c r="C70" t="s">
+        <v>141</v>
+      </c>
       <c r="D70" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>88</v>
       </c>
+      <c r="C71" t="s">
+        <v>140</v>
+      </c>
       <c r="D71" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>80</v>
       </c>
+      <c r="C72" t="s">
+        <v>139</v>
+      </c>
       <c r="D72" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>88</v>
       </c>
+      <c r="C73" t="s">
+        <v>140</v>
+      </c>
       <c r="D73" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>138</v>
       </c>
+      <c r="C74" t="s">
+        <v>142</v>
+      </c>
       <c r="D74" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>138</v>
       </c>
+      <c r="C75" t="s">
+        <v>142</v>
+      </c>
       <c r="D75" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>88</v>
       </c>
+      <c r="C76" t="s">
+        <v>140</v>
+      </c>
       <c r="D76" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>88</v>
       </c>
+      <c r="C77" t="s">
+        <v>140</v>
+      </c>
       <c r="D77" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>138</v>
       </c>
+      <c r="C78" t="s">
+        <v>142</v>
+      </c>
       <c r="D78" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>138</v>
       </c>
+      <c r="C79" t="s">
+        <v>142</v>
+      </c>
       <c r="D79" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>137</v>
       </c>
+      <c r="C80" t="s">
+        <v>141</v>
+      </c>
       <c r="D80" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
       </c>
+      <c r="C81" t="s">
+        <v>139</v>
+      </c>
       <c r="D81" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>80</v>
       </c>
+      <c r="C82" t="s">
+        <v>139</v>
+      </c>
       <c r="D82" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>80</v>
       </c>
+      <c r="C83" t="s">
+        <v>139</v>
+      </c>
       <c r="D83" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>137</v>
       </c>
+      <c r="C84" t="s">
+        <v>141</v>
+      </c>
       <c r="D84" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>80</v>
       </c>
+      <c r="C85" t="s">
+        <v>139</v>
+      </c>
       <c r="D85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>138</v>
       </c>
+      <c r="C86" t="s">
+        <v>142</v>
+      </c>
       <c r="D86" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>138</v>
       </c>
+      <c r="C87" t="s">
+        <v>142</v>
+      </c>
       <c r="D87" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>80</v>
       </c>
+      <c r="C88" t="s">
+        <v>139</v>
+      </c>
       <c r="D88" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>137</v>
       </c>
+      <c r="C89" t="s">
+        <v>141</v>
+      </c>
       <c r="D89" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>137</v>
       </c>
+      <c r="C90" t="s">
+        <v>141</v>
+      </c>
       <c r="D90" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>88</v>
       </c>
+      <c r="C91" t="s">
+        <v>140</v>
+      </c>
       <c r="D91" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>88</v>
       </c>
+      <c r="C92" t="s">
+        <v>140</v>
+      </c>
       <c r="D92" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>138</v>
       </c>
+      <c r="C93" t="s">
+        <v>142</v>
+      </c>
       <c r="D93" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>137</v>
       </c>
+      <c r="C94" t="s">
+        <v>141</v>
+      </c>
       <c r="D94" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>80</v>
       </c>
+      <c r="C95" t="s">
+        <v>139</v>
+      </c>
       <c r="D95" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>80</v>
       </c>
+      <c r="C96" t="s">
+        <v>139</v>
+      </c>
       <c r="D96" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>137</v>
       </c>
+      <c r="C97" t="s">
+        <v>141</v>
+      </c>
       <c r="D97" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>138</v>
       </c>
+      <c r="C98" t="s">
+        <v>142</v>
+      </c>
       <c r="D98" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>80</v>
       </c>
+      <c r="C99" t="s">
+        <v>139</v>
+      </c>
       <c r="D99" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>137</v>
       </c>
+      <c r="C100" t="s">
+        <v>141</v>
+      </c>
       <c r="D100" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -11833,359 +12137,447 @@
       <c r="B101" t="s">
         <v>88</v>
       </c>
+      <c r="C101" t="s">
+        <v>141</v>
+      </c>
       <c r="D101" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>138</v>
       </c>
+      <c r="C102" t="s">
+        <v>142</v>
+      </c>
       <c r="D102" t="b">
         <f>IF(B102=C102,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>137</v>
       </c>
+      <c r="C103" t="s">
+        <v>141</v>
+      </c>
       <c r="D103" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>138</v>
       </c>
+      <c r="C104" t="s">
+        <v>142</v>
+      </c>
       <c r="D104" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>80</v>
       </c>
+      <c r="C105" t="s">
+        <v>139</v>
+      </c>
       <c r="D105" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>137</v>
       </c>
+      <c r="C106" t="s">
+        <v>141</v>
+      </c>
       <c r="D106" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>138</v>
       </c>
+      <c r="C107" t="s">
+        <v>142</v>
+      </c>
       <c r="D107" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>80</v>
       </c>
+      <c r="C108" t="s">
+        <v>139</v>
+      </c>
       <c r="D108" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>137</v>
       </c>
+      <c r="C109" t="s">
+        <v>141</v>
+      </c>
       <c r="D109" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>138</v>
       </c>
+      <c r="C110" t="s">
+        <v>142</v>
+      </c>
       <c r="D110" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>80</v>
       </c>
+      <c r="C111" t="s">
+        <v>139</v>
+      </c>
       <c r="D111" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>138</v>
       </c>
+      <c r="C112" t="s">
+        <v>142</v>
+      </c>
       <c r="D112" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>137</v>
       </c>
+      <c r="C113" t="s">
+        <v>141</v>
+      </c>
       <c r="D113" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>138</v>
       </c>
+      <c r="C114" t="s">
+        <v>142</v>
+      </c>
       <c r="D114" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>88</v>
       </c>
+      <c r="C115" t="s">
+        <v>140</v>
+      </c>
       <c r="D115" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>88</v>
       </c>
+      <c r="C116" t="s">
+        <v>140</v>
+      </c>
       <c r="D116" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>80</v>
       </c>
+      <c r="C117" t="s">
+        <v>139</v>
+      </c>
       <c r="D117" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>88</v>
       </c>
+      <c r="C118" t="s">
+        <v>140</v>
+      </c>
       <c r="D118" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>88</v>
       </c>
+      <c r="C119" t="s">
+        <v>140</v>
+      </c>
       <c r="D119" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>88</v>
       </c>
+      <c r="C120" t="s">
+        <v>140</v>
+      </c>
       <c r="D120" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>138</v>
       </c>
+      <c r="C121" t="s">
+        <v>142</v>
+      </c>
       <c r="D121" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>138</v>
       </c>
+      <c r="C122" t="s">
+        <v>142</v>
+      </c>
       <c r="D122" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>138</v>
       </c>
+      <c r="C123" t="s">
+        <v>142</v>
+      </c>
       <c r="D123" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>80</v>
       </c>
+      <c r="C124" t="s">
+        <v>139</v>
+      </c>
       <c r="D124" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>138</v>
       </c>
+      <c r="C125" t="s">
+        <v>142</v>
+      </c>
       <c r="D125" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>88</v>
       </c>
+      <c r="C126" t="s">
+        <v>140</v>
+      </c>
       <c r="D126" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D128">
         <f>COUNTIF(D2:D126,TRUE)</f>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="F128" t="s">
         <v>90</v>
       </c>
       <c r="G128">
         <f>SUM(D128)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
         <v>91</v>
       </c>
       <c r="G129">
         <f>SUM(G128/125*100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="130" spans="6:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="6:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="F131" t="s">
         <v>92</v>
       </c>
       <c r="G131" t="str">
         <f>IF(G128&gt;=92,"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D131">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A3" sqref="A3:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
@@ -12201,16 +12593,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
       </c>
       <c r="D2" t="b">
         <f t="shared" ref="D2:D33" si="0">IF(B2=C2,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12220,273 +12615,342 @@
       <c r="B3" t="s">
         <v>138</v>
       </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
       <c r="D3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>138</v>
       </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>138</v>
       </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>80</v>
       </c>
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
       <c r="D6" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>88</v>
       </c>
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
       <c r="D7" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>80</v>
       </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
       <c r="D8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>80</v>
       </c>
+      <c r="C9" t="s">
+        <v>139</v>
+      </c>
       <c r="D9" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
       </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>80</v>
       </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
       <c r="D11" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>138</v>
       </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>88</v>
       </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
       <c r="D13" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>88</v>
       </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>137</v>
       </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>138</v>
       </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>88</v>
       </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
       <c r="D17" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>137</v>
       </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
       <c r="D18" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>137</v>
       </c>
+      <c r="C19" t="s">
+        <v>141</v>
+      </c>
       <c r="D19" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>137</v>
       </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
       <c r="D20" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>80</v>
       </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
       <c r="D21" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>88</v>
       </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
       <c r="D22" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>137</v>
       </c>
+      <c r="C23" t="s">
+        <v>141</v>
+      </c>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>80</v>
       </c>
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
       <c r="D24" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>88</v>
       </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
       <c r="D25" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -12496,453 +12960,567 @@
       <c r="B26" t="s">
         <v>137</v>
       </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
       <c r="D26" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>138</v>
       </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>88</v>
       </c>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
       <c r="D28" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>137</v>
       </c>
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
       <c r="D29" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>138</v>
       </c>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
       <c r="D30" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>137</v>
       </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>88</v>
       </c>
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>88</v>
       </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
       <c r="D33" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>80</v>
       </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
       <c r="D34" t="b">
         <f t="shared" ref="D34:D65" si="1">IF(B34=C34,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>137</v>
       </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
       <c r="D35" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>137</v>
       </c>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
       <c r="D36" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>88</v>
       </c>
+      <c r="C37" t="s">
+        <v>140</v>
+      </c>
       <c r="D37" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>137</v>
       </c>
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
       <c r="D38" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>138</v>
       </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
       <c r="D39" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>137</v>
       </c>
+      <c r="C40" t="s">
+        <v>141</v>
+      </c>
       <c r="D40" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>138</v>
       </c>
+      <c r="C41" t="s">
+        <v>142</v>
+      </c>
       <c r="D41" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>88</v>
       </c>
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
       <c r="D42" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>88</v>
       </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
       <c r="D43" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>88</v>
       </c>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
       <c r="D44" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
       </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
       <c r="D45" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>138</v>
       </c>
+      <c r="C46" t="s">
+        <v>142</v>
+      </c>
       <c r="D46" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>80</v>
       </c>
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
       <c r="D47" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>138</v>
       </c>
+      <c r="C48" t="s">
+        <v>142</v>
+      </c>
       <c r="D48" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>88</v>
       </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
       <c r="D49" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>137</v>
       </c>
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
       <c r="D50" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>88</v>
       </c>
+      <c r="C51" t="s">
+        <v>140</v>
+      </c>
       <c r="D51" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>137</v>
       </c>
+      <c r="C52" t="s">
+        <v>141</v>
+      </c>
       <c r="D52" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>137</v>
       </c>
+      <c r="C53" t="s">
+        <v>141</v>
+      </c>
       <c r="D53" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>137</v>
       </c>
+      <c r="C54" t="s">
+        <v>141</v>
+      </c>
       <c r="D54" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>137</v>
       </c>
+      <c r="C55" t="s">
+        <v>141</v>
+      </c>
       <c r="D55" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>137</v>
       </c>
+      <c r="C56" t="s">
+        <v>141</v>
+      </c>
       <c r="D56" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>137</v>
       </c>
+      <c r="C57" t="s">
+        <v>141</v>
+      </c>
       <c r="D57" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>138</v>
       </c>
+      <c r="C58" t="s">
+        <v>142</v>
+      </c>
       <c r="D58" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>80</v>
       </c>
+      <c r="C59" t="s">
+        <v>139</v>
+      </c>
       <c r="D59" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>80</v>
       </c>
+      <c r="C60" t="s">
+        <v>139</v>
+      </c>
       <c r="D60" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>138</v>
       </c>
+      <c r="C61" t="s">
+        <v>142</v>
+      </c>
       <c r="D61" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>88</v>
       </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
       <c r="D62" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>137</v>
       </c>
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
       <c r="D63" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -12957,100 +13535,124 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>138</v>
       </c>
+      <c r="C65" t="s">
+        <v>142</v>
+      </c>
       <c r="D65" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>80</v>
       </c>
+      <c r="C66" t="s">
+        <v>139</v>
+      </c>
       <c r="D66" t="b">
         <f t="shared" ref="D66:D97" si="2">IF(B66=C66,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>137</v>
       </c>
+      <c r="C67" t="s">
+        <v>141</v>
+      </c>
       <c r="D67" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>80</v>
       </c>
+      <c r="C68" t="s">
+        <v>139</v>
+      </c>
       <c r="D68" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>88</v>
       </c>
+      <c r="C69" t="s">
+        <v>140</v>
+      </c>
       <c r="D69" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>88</v>
       </c>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
       <c r="D70" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>138</v>
       </c>
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
       <c r="D71" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>80</v>
       </c>
+      <c r="C72" t="s">
+        <v>139</v>
+      </c>
       <c r="D72" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -13060,21 +13662,27 @@
       <c r="B73" t="s">
         <v>88</v>
       </c>
+      <c r="C73" t="s">
+        <v>139</v>
+      </c>
       <c r="D73" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>138</v>
       </c>
+      <c r="C74" t="s">
+        <v>142</v>
+      </c>
       <c r="D74" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -13089,88 +13697,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>137</v>
       </c>
+      <c r="C76" t="s">
+        <v>141</v>
+      </c>
       <c r="D76" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>138</v>
       </c>
+      <c r="C77" t="s">
+        <v>142</v>
+      </c>
       <c r="D77" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>88</v>
       </c>
+      <c r="C78" t="s">
+        <v>140</v>
+      </c>
       <c r="D78" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>88</v>
       </c>
+      <c r="C79" t="s">
+        <v>140</v>
+      </c>
       <c r="D79" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
       </c>
+      <c r="C80" t="s">
+        <v>139</v>
+      </c>
       <c r="D80" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>138</v>
       </c>
+      <c r="C81" t="s">
+        <v>142</v>
+      </c>
       <c r="D81" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>137</v>
       </c>
+      <c r="C82" t="s">
+        <v>141</v>
+      </c>
       <c r="D82" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -13185,196 +13814,244 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>137</v>
       </c>
+      <c r="C84" t="s">
+        <v>141</v>
+      </c>
       <c r="D84" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>138</v>
       </c>
+      <c r="C85" t="s">
+        <v>142</v>
+      </c>
       <c r="D85" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>80</v>
       </c>
+      <c r="C86" t="s">
+        <v>139</v>
+      </c>
       <c r="D86" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>80</v>
       </c>
+      <c r="C87" t="s">
+        <v>139</v>
+      </c>
       <c r="D87" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>137</v>
       </c>
+      <c r="C88" t="s">
+        <v>141</v>
+      </c>
       <c r="D88" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>80</v>
       </c>
+      <c r="C89" t="s">
+        <v>139</v>
+      </c>
       <c r="D89" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>138</v>
       </c>
+      <c r="C90" t="s">
+        <v>142</v>
+      </c>
       <c r="D90" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>88</v>
       </c>
+      <c r="C91" t="s">
+        <v>140</v>
+      </c>
       <c r="D91" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>138</v>
       </c>
+      <c r="C92" t="s">
+        <v>142</v>
+      </c>
       <c r="D92" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>80</v>
       </c>
+      <c r="C93" t="s">
+        <v>139</v>
+      </c>
       <c r="D93" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>80</v>
       </c>
+      <c r="C94" t="s">
+        <v>139</v>
+      </c>
       <c r="D94" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>137</v>
       </c>
+      <c r="C95" t="s">
+        <v>141</v>
+      </c>
       <c r="D95" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>88</v>
       </c>
+      <c r="C96" t="s">
+        <v>140</v>
+      </c>
       <c r="D96" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>80</v>
       </c>
+      <c r="C97" t="s">
+        <v>139</v>
+      </c>
       <c r="D97" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>138</v>
       </c>
+      <c r="C98" t="s">
+        <v>142</v>
+      </c>
       <c r="D98" t="b">
         <f t="shared" ref="D98:D129" si="3">IF(B98=C98,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>137</v>
       </c>
+      <c r="C99" t="s">
+        <v>141</v>
+      </c>
       <c r="D99" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -13384,582 +14061,725 @@
       <c r="B100" t="s">
         <v>137</v>
       </c>
+      <c r="C100" t="s">
+        <v>139</v>
+      </c>
       <c r="D100" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>138</v>
       </c>
+      <c r="C101" t="s">
+        <v>142</v>
+      </c>
       <c r="D101" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>137</v>
       </c>
+      <c r="C102" t="s">
+        <v>141</v>
+      </c>
       <c r="D102" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>88</v>
       </c>
+      <c r="C103" t="s">
+        <v>140</v>
+      </c>
       <c r="D103" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>137</v>
       </c>
+      <c r="C104" t="s">
+        <v>141</v>
+      </c>
       <c r="D104" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>137</v>
       </c>
+      <c r="C105" t="s">
+        <v>141</v>
+      </c>
       <c r="D105" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>88</v>
       </c>
+      <c r="C106" t="s">
+        <v>140</v>
+      </c>
       <c r="D106" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>80</v>
       </c>
+      <c r="C107" t="s">
+        <v>139</v>
+      </c>
       <c r="D107" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>137</v>
       </c>
+      <c r="C108" t="s">
+        <v>141</v>
+      </c>
       <c r="D108" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>80</v>
       </c>
+      <c r="C109" t="s">
+        <v>139</v>
+      </c>
       <c r="D109" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>88</v>
       </c>
+      <c r="C110" t="s">
+        <v>140</v>
+      </c>
       <c r="D110" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>88</v>
       </c>
+      <c r="C111" t="s">
+        <v>140</v>
+      </c>
       <c r="D111" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>88</v>
       </c>
+      <c r="C112" t="s">
+        <v>140</v>
+      </c>
       <c r="D112" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>88</v>
       </c>
+      <c r="C113" t="s">
+        <v>140</v>
+      </c>
       <c r="D113" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>137</v>
       </c>
+      <c r="C114" t="s">
+        <v>141</v>
+      </c>
       <c r="D114" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>138</v>
       </c>
+      <c r="C115" t="s">
+        <v>142</v>
+      </c>
       <c r="D115" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>137</v>
       </c>
+      <c r="C116" t="s">
+        <v>141</v>
+      </c>
       <c r="D116" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>137</v>
       </c>
+      <c r="C117" t="s">
+        <v>141</v>
+      </c>
       <c r="D117" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>88</v>
       </c>
+      <c r="C118" t="s">
+        <v>140</v>
+      </c>
       <c r="D118" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>137</v>
       </c>
+      <c r="C119" t="s">
+        <v>141</v>
+      </c>
       <c r="D119" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>80</v>
       </c>
+      <c r="C120" t="s">
+        <v>139</v>
+      </c>
       <c r="D120" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>80</v>
       </c>
+      <c r="C121" t="s">
+        <v>139</v>
+      </c>
       <c r="D121" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>88</v>
       </c>
+      <c r="C122" t="s">
+        <v>140</v>
+      </c>
       <c r="D122" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>137</v>
       </c>
+      <c r="C123" t="s">
+        <v>141</v>
+      </c>
       <c r="D123" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>88</v>
       </c>
+      <c r="C124" t="s">
+        <v>140</v>
+      </c>
       <c r="D124" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>138</v>
       </c>
+      <c r="C125" t="s">
+        <v>142</v>
+      </c>
       <c r="D125" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>137</v>
       </c>
+      <c r="C126" t="s">
+        <v>141</v>
+      </c>
       <c r="D126" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>88</v>
       </c>
+      <c r="C127" t="s">
+        <v>140</v>
+      </c>
       <c r="D127" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>138</v>
       </c>
+      <c r="C128" t="s">
+        <v>142</v>
+      </c>
       <c r="D128" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>88</v>
       </c>
+      <c r="C129" t="s">
+        <v>140</v>
+      </c>
       <c r="D129" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>138</v>
       </c>
+      <c r="C130" t="s">
+        <v>142</v>
+      </c>
       <c r="D130" t="b">
         <f t="shared" ref="D130:D144" si="4">IF(B130=C130,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>80</v>
       </c>
+      <c r="C131" t="s">
+        <v>139</v>
+      </c>
       <c r="D131" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>88</v>
       </c>
+      <c r="C132" t="s">
+        <v>140</v>
+      </c>
       <c r="D132" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>88</v>
       </c>
+      <c r="C133" t="s">
+        <v>140</v>
+      </c>
       <c r="D133" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>88</v>
       </c>
+      <c r="C134" t="s">
+        <v>140</v>
+      </c>
       <c r="D134" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>80</v>
       </c>
+      <c r="C135" t="s">
+        <v>139</v>
+      </c>
       <c r="D135" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>138</v>
       </c>
+      <c r="C136" t="s">
+        <v>142</v>
+      </c>
       <c r="D136" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>80</v>
       </c>
+      <c r="C137" t="s">
+        <v>139</v>
+      </c>
       <c r="D137" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>80</v>
+      </c>
+      <c r="C138" t="s">
+        <v>139</v>
       </c>
       <c r="D138" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>137</v>
+      </c>
+      <c r="C139" t="s">
+        <v>141</v>
       </c>
       <c r="D139" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>138</v>
+      </c>
+      <c r="C140" t="s">
+        <v>142</v>
       </c>
       <c r="D140" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>88</v>
+      </c>
+      <c r="C141" t="s">
+        <v>140</v>
       </c>
       <c r="D141" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>138</v>
+      </c>
+      <c r="C142" t="s">
+        <v>142</v>
       </c>
       <c r="D142" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>80</v>
+      </c>
+      <c r="C143" t="s">
+        <v>139</v>
       </c>
       <c r="D143" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>137</v>
       </c>
+      <c r="C144" t="s">
+        <v>141</v>
+      </c>
       <c r="D144" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="4:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D146">
         <f>COUNTIF(D2:D144,TRUE)</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="F146" t="s">
         <v>90</v>
       </c>
       <c r="G146">
         <f>SUM(D146)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="147" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="F147" t="s">
         <v>91</v>
       </c>
       <c r="G147">
         <f>SUM(G146/143*100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="4:7" x14ac:dyDescent="0.25">
+        <v>95.104895104895107</v>
+      </c>
+    </row>
+    <row r="148" spans="4:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="F149" t="s">
         <v>92</v>
       </c>
       <c r="G149" t="str">
         <f>IF(G146&gt;=102,"PASS","FAIL")</f>
-        <v>FAIL</v>
+        <v>PASS</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D149" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="D1:D149">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A21AD4F-F6D0-4D46-990E-A688B2784854}">
-  <dimension ref="A1:D34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14002,7 +14822,7 @@
         <v>137</v>
       </c>
       <c r="D3" t="b">
-        <f t="shared" ref="D3:D34" si="0">IF(B3=C3,TRUE,FALSE)</f>
+        <f t="shared" ref="D3:D50" si="0">IF(B3=C3,TRUE,FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -14326,6 +15146,157 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Exam Attempt4.xlsx
+++ b/Exam Attempt4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2'!$C$1:$C$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3'!$D$1:$D$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4'!$A$1:$G$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'5'!$E$1:$E$195</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Inzim!$D$1:$D$131</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">new!$D$1:$D$149</definedName>
   </definedNames>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="158">
   <si>
     <t>Slno</t>
   </si>
@@ -490,6 +491,30 @@
   <si>
     <t>inzmam</t>
   </si>
+  <si>
+    <t>Which type of virus can change its own code and then cipher itself multiple times as it replicates?</t>
+  </si>
+  <si>
+    <t>A friend of yours tells you that he downloaded and executed a file that was sent to him by a coworker. Since the file did nothing when executed, he asks you for help because he suspects that he may have installed a trojan on his computer. What tests would you perform to determine whether his computer is infected?</t>
+  </si>
+  <si>
+    <t>Sam, a professional hacker, targeted an organization with intention of compromising AWS IAM credentials. He attempted to lure one of the employees of the organization by initiating fake calls while posing as a legitimate employee. Moreover, he sent phishing emails to steal the AWS IAM What is the technique used by Sam to compromise the AWS IAM credentials?</t>
+  </si>
+  <si>
+    <t>Network-based scanner</t>
+  </si>
+  <si>
+    <t>The -D flag</t>
+  </si>
+  <si>
+    <t>False positive</t>
+  </si>
+  <si>
+    <t>What is the first step for a hacker conducting a DNS cache poisoning (DNS spoofing) attack against an organizat</t>
+  </si>
+  <si>
+    <t>Louis, a professional hacker, had used specialized tools or search engines to encrypt all his browsing activity and navigate anonymously to obtain sensitive/hidden information about official government or federal databases. After gathering the information, he successfully performed an attack on the target government organization without being traced. Which of the following techniques is described in the above scenario?</t>
+  </si>
 </sst>
 </file>
 
@@ -558,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -583,6 +608,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8266,18 +8294,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E203" sqref="E203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="17.5703125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.7109375" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="89.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8291,1495 +8325,1882 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
       </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
       <c r="D2" t="b">
         <f>IF(B2=C2,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
       </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
       <c r="D3" t="b">
         <f t="shared" ref="D3:D66" si="0">IF(B3=C3,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
       </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
       </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
       <c r="D6" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
       </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
       <c r="D7" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
       </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
       <c r="D8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>98</v>
       </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
       <c r="D11" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
       </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
       </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
       <c r="D13" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>99</v>
       </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>100</v>
       </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>101</v>
       </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
       <c r="D17" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
       <c r="D18" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
       <c r="D19" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
       </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
       <c r="D20" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
       <c r="D21" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
       <c r="D22" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>102</v>
       </c>
+      <c r="C23" t="s">
+        <v>102</v>
+      </c>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
       <c r="D24" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25">
         <v>128</v>
       </c>
+      <c r="C25">
+        <v>128</v>
+      </c>
       <c r="D25" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
       <c r="D26" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>73</v>
       </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
       <c r="D28" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
       <c r="D29" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>103</v>
       </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
       <c r="D30" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>76</v>
       </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>82</v>
       </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>51</v>
       </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
       <c r="D33" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>104</v>
       </c>
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
       <c r="D34" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
       <c r="D35" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>105</v>
       </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
       <c r="D36" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>48</v>
       </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
       <c r="D37" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>106</v>
       </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
       <c r="D38" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
       </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
       <c r="D39" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>107</v>
       </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
       <c r="D40" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>109</v>
       </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
       <c r="D41" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>110</v>
       </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
       <c r="D42" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>70</v>
       </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
       <c r="D43" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
       <c r="D44" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
       <c r="D45" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>111</v>
       </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
       <c r="D46" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>38</v>
       </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
       <c r="D47" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>75</v>
       </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
       <c r="D48" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
       <c r="D49" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>83</v>
       </c>
+      <c r="C50" t="s">
+        <v>83</v>
+      </c>
       <c r="D50" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
       </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
       <c r="D51" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>81</v>
       </c>
+      <c r="C52" t="s">
+        <v>81</v>
+      </c>
       <c r="D52" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>112</v>
       </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
       <c r="D53" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>113</v>
       </c>
+      <c r="C54" t="s">
+        <v>113</v>
+      </c>
       <c r="D54" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>114</v>
       </c>
+      <c r="C55" t="s">
+        <v>153</v>
+      </c>
       <c r="D55" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>115</v>
       </c>
+      <c r="C56" t="s">
+        <v>115</v>
+      </c>
       <c r="D56" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>116</v>
       </c>
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
       <c r="D57" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>47</v>
       </c>
+      <c r="C58" t="s">
+        <v>47</v>
+      </c>
       <c r="D58" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>117</v>
       </c>
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
       <c r="D59" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>118</v>
       </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
       <c r="D60" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>63</v>
       </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
       <c r="D61" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
       <c r="D62" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>72</v>
       </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
       <c r="D63" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>78</v>
       </c>
+      <c r="C64" t="s">
+        <v>78</v>
+      </c>
       <c r="D64" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>119</v>
       </c>
+      <c r="C65" t="s">
+        <v>119</v>
+      </c>
       <c r="D65" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>120</v>
       </c>
+      <c r="C66" t="s">
+        <v>120</v>
+      </c>
       <c r="D66" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>121</v>
       </c>
+      <c r="C67" t="s">
+        <v>121</v>
+      </c>
       <c r="D67" t="b">
         <f t="shared" ref="D67:D130" si="1">IF(B67=C67,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>24</v>
       </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
       <c r="D68" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
       <c r="D69" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>23</v>
       </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
       <c r="D70" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>40</v>
       </c>
+      <c r="C71" t="s">
+        <v>40</v>
+      </c>
       <c r="D71" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>122</v>
       </c>
+      <c r="C72" t="s">
+        <v>122</v>
+      </c>
       <c r="D72" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>123</v>
       </c>
+      <c r="C73" t="s">
+        <v>154</v>
+      </c>
       <c r="D73" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>36</v>
       </c>
+      <c r="C74" t="s">
+        <v>36</v>
+      </c>
       <c r="D74" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>89</v>
       </c>
+      <c r="C75" t="s">
+        <v>89</v>
+      </c>
       <c r="D75" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>124</v>
       </c>
+      <c r="C76" t="s">
+        <v>124</v>
+      </c>
       <c r="D76" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
       </c>
+      <c r="C77" t="s">
+        <v>77</v>
+      </c>
       <c r="D77" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>125</v>
       </c>
+      <c r="C78" t="s">
+        <v>125</v>
+      </c>
       <c r="D78" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>54</v>
       </c>
+      <c r="C79" t="s">
+        <v>54</v>
+      </c>
       <c r="D79" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>126</v>
       </c>
+      <c r="C80" t="s">
+        <v>126</v>
+      </c>
       <c r="D80" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>87</v>
       </c>
+      <c r="C81" t="s">
+        <v>87</v>
+      </c>
       <c r="D81" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
       </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
       <c r="D82" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>49</v>
       </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
       <c r="D83" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>56</v>
       </c>
+      <c r="C84" t="s">
+        <v>56</v>
+      </c>
       <c r="D84" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>127</v>
       </c>
+      <c r="C85" t="s">
+        <v>127</v>
+      </c>
       <c r="D85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
       </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
       <c r="D86" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>128</v>
       </c>
+      <c r="C87" t="s">
+        <v>128</v>
+      </c>
       <c r="D87" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>39</v>
       </c>
+      <c r="C88" t="s">
+        <v>39</v>
+      </c>
       <c r="D88" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>43</v>
       </c>
+      <c r="C89" t="s">
+        <v>43</v>
+      </c>
       <c r="D89" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>129</v>
       </c>
+      <c r="C90" t="s">
+        <v>155</v>
+      </c>
       <c r="D90" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91">
         <v>48101</v>
       </c>
+      <c r="C91">
+        <v>48101</v>
+      </c>
       <c r="D91" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>25</v>
       </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
       <c r="D92" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
       </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
       <c r="D93" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>84</v>
       </c>
+      <c r="C94" t="s">
+        <v>84</v>
+      </c>
       <c r="D94" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
       </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
       <c r="D95" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>68</v>
       </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
       <c r="D96" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>64</v>
       </c>
+      <c r="C97" t="s">
+        <v>64</v>
+      </c>
       <c r="D97" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>53</v>
       </c>
+      <c r="C98" t="s">
+        <v>53</v>
+      </c>
       <c r="D98" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>44</v>
       </c>
+      <c r="C99" t="s">
+        <v>44</v>
+      </c>
       <c r="D99" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>130</v>
       </c>
+      <c r="C100" t="s">
+        <v>130</v>
+      </c>
       <c r="D100" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>60</v>
       </c>
+      <c r="C101" t="s">
+        <v>60</v>
+      </c>
       <c r="D101" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>45</v>
       </c>
+      <c r="C102" t="s">
+        <v>45</v>
+      </c>
       <c r="D102" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>28</v>
       </c>
+      <c r="C103" t="s">
+        <v>28</v>
+      </c>
       <c r="D103" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>34</v>
       </c>
+      <c r="C104" t="s">
+        <v>34</v>
+      </c>
       <c r="D104" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>21</v>
       </c>
+      <c r="C105" t="s">
+        <v>21</v>
+      </c>
       <c r="D105" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>65</v>
       </c>
+      <c r="C106" t="s">
+        <v>65</v>
+      </c>
       <c r="D106" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>131</v>
       </c>
+      <c r="C107" t="s">
+        <v>131</v>
+      </c>
       <c r="D107" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>18</v>
       </c>
+      <c r="C108" t="s">
+        <v>18</v>
+      </c>
       <c r="D108" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>42</v>
       </c>
+      <c r="C109" t="s">
+        <v>42</v>
+      </c>
       <c r="D109" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>132</v>
       </c>
+      <c r="C110" t="s">
+        <v>132</v>
+      </c>
       <c r="D110" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>133</v>
       </c>
+      <c r="C111" t="s">
+        <v>133</v>
+      </c>
       <c r="D111" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>37</v>
       </c>
+      <c r="C112" t="s">
+        <v>37</v>
+      </c>
       <c r="D112" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>134</v>
       </c>
+      <c r="C113" t="s">
+        <v>134</v>
+      </c>
       <c r="D113" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>35</v>
       </c>
+      <c r="C114" t="s">
+        <v>35</v>
+      </c>
       <c r="D114" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>14</v>
       </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
       <c r="D115" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>135</v>
       </c>
+      <c r="C116" t="s">
+        <v>135</v>
+      </c>
       <c r="D116" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>26</v>
       </c>
+      <c r="C117" t="s">
+        <v>26</v>
+      </c>
       <c r="D117" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>57</v>
       </c>
+      <c r="C118" t="s">
+        <v>57</v>
+      </c>
       <c r="D118" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>85</v>
       </c>
+      <c r="C119" t="s">
+        <v>85</v>
+      </c>
       <c r="D119" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>136</v>
       </c>
+      <c r="C120" t="s">
+        <v>136</v>
+      </c>
       <c r="D120" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
       </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
       <c r="D121" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>30</v>
       </c>
+      <c r="C122" t="s">
+        <v>30</v>
+      </c>
       <c r="D122" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>86</v>
       </c>
+      <c r="C123" t="s">
+        <v>86</v>
+      </c>
       <c r="D123" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>67</v>
       </c>
+      <c r="C124" t="s">
+        <v>67</v>
+      </c>
       <c r="D124" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>47</v>
       </c>
+      <c r="C125" t="s">
+        <v>47</v>
+      </c>
       <c r="D125" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -9791,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -9803,7 +10224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -9815,7 +10236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -9827,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -9839,7 +10260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -9851,7 +10272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -9863,7 +10284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -9875,7 +10296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -9887,7 +10308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -9899,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -9911,7 +10332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -9923,7 +10344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -9935,7 +10356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -9947,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -9959,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -9971,7 +10392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -9983,7 +10404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -9995,7 +10416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -10007,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -10019,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -10031,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -10043,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -10055,7 +10476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -10067,7 +10488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -10079,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -10091,7 +10512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -10103,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -10115,7 +10536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -10127,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -10139,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -10151,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -10163,7 +10584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -10175,7 +10596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -10187,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -10199,7 +10620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -10211,7 +10632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -10223,7 +10644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -10235,7 +10656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -10247,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -10259,7 +10680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -10271,7 +10692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -10283,7 +10704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -10295,7 +10716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -10307,7 +10728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -10319,7 +10740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -10331,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -10343,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -10355,7 +10776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -10367,7 +10788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -10379,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -10391,7 +10812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -10403,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -10415,7 +10836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -10427,7 +10848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -10439,7 +10860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -10451,7 +10872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -10463,7 +10884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -10475,7 +10896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -10487,7 +10908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -10499,7 +10920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -10511,7 +10932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -10523,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -10535,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -10547,7 +10968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -10559,7 +10980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -10571,7 +10992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -10583,10 +11004,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="D194">
         <f>COUNTIF(D94:D193,TRUE)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F194" t="s">
         <v>90</v>
@@ -10603,7 +11025,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="195" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F195" t="s">
         <v>91</v>
       </c>
@@ -10613,6 +11035,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E195">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14778,8 +15207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14809,9 +15238,12 @@
       <c r="B2" t="s">
         <v>80</v>
       </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
       <c r="D2" t="b">
         <f>IF(B2=C2,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -14821,9 +15253,12 @@
       <c r="B3" t="s">
         <v>137</v>
       </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
       <c r="D3" t="b">
         <f t="shared" ref="D3:D50" si="0">IF(B3=C3,TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -14833,9 +15268,12 @@
       <c r="B4" t="s">
         <v>80</v>
       </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
       <c r="D4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -14845,9 +15283,12 @@
       <c r="B5" t="s">
         <v>80</v>
       </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
       <c r="D5" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -14857,9 +15298,12 @@
       <c r="B6" t="s">
         <v>137</v>
       </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
       <c r="D6" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -14874,17 +15318,23 @@
       <c r="B9" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
       <c r="D9" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="12">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
       </c>
       <c r="D10" t="b">
         <f t="shared" si="0"/>
@@ -14898,9 +15348,12 @@
       <c r="B11" t="s">
         <v>80</v>
       </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
       <c r="D11" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -14910,9 +15363,12 @@
       <c r="B12" t="s">
         <v>80</v>
       </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
       <c r="D12" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -14922,9 +15378,12 @@
       <c r="B13" t="s">
         <v>88</v>
       </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
       <c r="D13" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -14934,9 +15393,12 @@
       <c r="B14" t="s">
         <v>88</v>
       </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
       <c r="D14" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -14946,9 +15408,12 @@
       <c r="B15" t="s">
         <v>138</v>
       </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
       <c r="D15" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -14958,9 +15423,12 @@
       <c r="B16" t="s">
         <v>88</v>
       </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
       <c r="D16" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -14970,9 +15438,12 @@
       <c r="B17" t="s">
         <v>138</v>
       </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
       <c r="D17" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -14982,9 +15453,12 @@
       <c r="B18" t="s">
         <v>80</v>
       </c>
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
       <c r="D18" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -15002,9 +15476,12 @@
       <c r="B21" t="s">
         <v>138</v>
       </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
       <c r="D21" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -15014,9 +15491,12 @@
       <c r="B22" t="s">
         <v>88</v>
       </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
       <c r="D22" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -15026,9 +15506,12 @@
       <c r="B23" t="s">
         <v>88</v>
       </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
       <c r="D23" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -15046,9 +15529,12 @@
       <c r="B26" t="s">
         <v>88</v>
       </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
       <c r="D26" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -15058,9 +15544,12 @@
       <c r="B27" t="s">
         <v>138</v>
       </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
       <c r="D27" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -15070,9 +15559,12 @@
       <c r="B28" t="s">
         <v>137</v>
       </c>
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
       <c r="D28" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -15082,9 +15574,12 @@
       <c r="B29" t="s">
         <v>137</v>
       </c>
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
       <c r="D29" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -15094,9 +15589,12 @@
       <c r="B30" t="s">
         <v>88</v>
       </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
       <c r="D30" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -15106,9 +15604,12 @@
       <c r="B31" t="s">
         <v>138</v>
       </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
       <c r="D31" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -15118,9 +15619,12 @@
       <c r="B32" t="s">
         <v>88</v>
       </c>
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
       <c r="D32" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -15130,9 +15634,12 @@
       <c r="B33" t="s">
         <v>137</v>
       </c>
+      <c r="C33" t="s">
+        <v>141</v>
+      </c>
       <c r="D33" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -15142,9 +15649,12 @@
       <c r="B34" t="s">
         <v>138</v>
       </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
       <c r="D34" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -15159,9 +15669,12 @@
       <c r="B38" t="s">
         <v>138</v>
       </c>
+      <c r="C38" t="s">
+        <v>142</v>
+      </c>
       <c r="D38" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -15171,9 +15684,12 @@
       <c r="B39" t="s">
         <v>137</v>
       </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
       <c r="D39" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -15183,9 +15699,12 @@
       <c r="B40" t="s">
         <v>88</v>
       </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
       <c r="D40" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -15195,9 +15714,12 @@
       <c r="B41" t="s">
         <v>88</v>
       </c>
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
       <c r="D41" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -15207,9 +15729,12 @@
       <c r="B42" t="s">
         <v>88</v>
       </c>
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
       <c r="D42" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -15219,6 +15744,9 @@
       <c r="B43" t="s">
         <v>80</v>
       </c>
+      <c r="C43" t="s">
+        <v>141</v>
+      </c>
       <c r="D43" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15231,9 +15759,12 @@
       <c r="B44" t="s">
         <v>137</v>
       </c>
+      <c r="C44" t="s">
+        <v>141</v>
+      </c>
       <c r="D44" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -15248,9 +15779,12 @@
       <c r="B47" t="s">
         <v>138</v>
       </c>
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
       <c r="D47" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -15260,9 +15794,12 @@
       <c r="B48" t="s">
         <v>138</v>
       </c>
+      <c r="C48" t="s">
+        <v>142</v>
+      </c>
       <c r="D48" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -15272,9 +15809,12 @@
       <c r="B49" t="s">
         <v>137</v>
       </c>
+      <c r="C49" t="s">
+        <v>141</v>
+      </c>
       <c r="D49" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -15284,9 +15824,12 @@
       <c r="B50" t="s">
         <v>88</v>
       </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
       <c r="D50" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
